--- a/ultimo.xlsx
+++ b/ultimo.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView minimized="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="||Hoja11" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,8 +26,32 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>icriomi</author>
+  </authors>
+  <commentList>
+    <comment ref="IV1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>#1</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="38">
   <si>
     <t>FECHA</t>
   </si>
@@ -94,18 +118,73 @@
   <si>
     <t>CHILLER WINTER</t>
   </si>
+  <si>
+    <t>03/31/2022 12:10</t>
+  </si>
+  <si>
+    <t>03/31/2022 12:11</t>
+  </si>
+  <si>
+    <t>03/31/2022 12:12</t>
+  </si>
+  <si>
+    <t>03/31/2022 12:13</t>
+  </si>
+  <si>
+    <t>03/31/2022 12:14</t>
+  </si>
+  <si>
+    <t>03/31/2022 12:15</t>
+  </si>
+  <si>
+    <t>03/31/2022 12:16</t>
+  </si>
+  <si>
+    <t>03/31/2022 12:17</t>
+  </si>
+  <si>
+    <t>03/31/2022 12:18</t>
+  </si>
+  <si>
+    <t>03/31/2022 12:19</t>
+  </si>
+  <si>
+    <t>03/31/2022 12:20</t>
+  </si>
+  <si>
+    <t>03/31/2022 12:21</t>
+  </si>
+  <si>
+    <t>03/31/2022 12:22</t>
+  </si>
+  <si>
+    <t>03/31/2022 12:23</t>
+  </si>
+  <si>
+    <t>03/31/2022 12:24</t>
+  </si>
+  <si>
+    <t>03/31/2022 12:25</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -128,8 +207,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -443,11 +523,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CU3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CN8772" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:CU8790"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -465,7 +545,7 @@
     <col min="96" max="99" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -479,7 +559,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:256" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -523,7 +603,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:256" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -817,9 +897,5990 @@
       </c>
       <c r="CU3" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:256" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>770621</v>
+      </c>
+      <c r="C4">
+        <v>207570</v>
+      </c>
+      <c r="D4">
+        <v>178780</v>
+      </c>
+      <c r="E4">
+        <v>260406</v>
+      </c>
+      <c r="F4">
+        <v>3858</v>
+      </c>
+      <c r="G4">
+        <v>3883</v>
+      </c>
+      <c r="H4">
+        <v>3847</v>
+      </c>
+      <c r="I4">
+        <v>333776</v>
+      </c>
+      <c r="J4">
+        <v>109691</v>
+      </c>
+      <c r="K4">
+        <v>109847</v>
+      </c>
+      <c r="L4">
+        <v>113515</v>
+      </c>
+      <c r="M4">
+        <v>3828</v>
+      </c>
+      <c r="N4">
+        <v>3871</v>
+      </c>
+      <c r="O4">
+        <v>3839</v>
+      </c>
+      <c r="P4">
+        <v>188743</v>
+      </c>
+      <c r="Q4">
+        <v>38940</v>
+      </c>
+      <c r="R4">
+        <v>41972</v>
+      </c>
+      <c r="S4">
+        <v>42008</v>
+      </c>
+      <c r="T4">
+        <v>3826</v>
+      </c>
+      <c r="U4">
+        <v>3865</v>
+      </c>
+      <c r="V4">
+        <v>3836</v>
+      </c>
+      <c r="W4">
+        <v>1636600</v>
+      </c>
+      <c r="X4">
+        <v>290242</v>
+      </c>
+      <c r="Y4">
+        <v>314919</v>
+      </c>
+      <c r="Z4">
+        <v>295958</v>
+      </c>
+      <c r="AA4">
+        <v>3980</v>
+      </c>
+      <c r="AB4">
+        <v>3993</v>
+      </c>
+      <c r="AC4">
+        <v>3966</v>
+      </c>
+      <c r="AD4">
+        <v>45694</v>
+      </c>
+      <c r="AE4">
+        <v>4278</v>
+      </c>
+      <c r="AF4">
+        <v>4194</v>
+      </c>
+      <c r="AG4">
+        <v>3651</v>
+      </c>
+      <c r="AH4">
+        <v>3982</v>
+      </c>
+      <c r="AI4">
+        <v>3993</v>
+      </c>
+      <c r="AJ4">
+        <v>3969</v>
+      </c>
+      <c r="AK4">
+        <v>383213</v>
+      </c>
+      <c r="AL4">
+        <v>109636</v>
+      </c>
+      <c r="AM4">
+        <v>113561</v>
+      </c>
+      <c r="AN4">
+        <v>109338</v>
+      </c>
+      <c r="AO4">
+        <v>3979</v>
+      </c>
+      <c r="AP4">
+        <v>3990</v>
+      </c>
+      <c r="AQ4">
+        <v>3965</v>
+      </c>
+      <c r="AR4">
+        <v>165812</v>
+      </c>
+      <c r="AS4">
+        <v>2032</v>
+      </c>
+      <c r="AT4">
+        <v>2075</v>
+      </c>
+      <c r="AU4">
+        <v>2024</v>
+      </c>
+      <c r="AV4">
+        <v>3983</v>
+      </c>
+      <c r="AW4">
+        <v>3993</v>
+      </c>
+      <c r="AX4">
+        <v>3967</v>
+      </c>
+      <c r="AY4">
+        <v>508014</v>
+      </c>
+      <c r="AZ4">
+        <v>129123</v>
+      </c>
+      <c r="BA4">
+        <v>142780</v>
+      </c>
+      <c r="BB4">
+        <v>129122</v>
+      </c>
+      <c r="BC4">
+        <v>4060</v>
+      </c>
+      <c r="BD4">
+        <v>4074</v>
+      </c>
+      <c r="BE4">
+        <v>4042</v>
+      </c>
+      <c r="BF4">
+        <v>2345127</v>
+      </c>
+      <c r="BG4">
+        <v>382396</v>
+      </c>
+      <c r="BH4">
+        <v>409718</v>
+      </c>
+      <c r="BI4">
+        <v>368849</v>
+      </c>
+      <c r="BJ4">
+        <v>4063</v>
+      </c>
+      <c r="BK4">
+        <v>4070</v>
+      </c>
+      <c r="BL4">
+        <v>4040</v>
+      </c>
+      <c r="BM4">
+        <v>63261</v>
+      </c>
+      <c r="BN4">
+        <v>0</v>
+      </c>
+      <c r="BO4">
+        <v>0</v>
+      </c>
+      <c r="BP4">
+        <v>0</v>
+      </c>
+      <c r="BQ4">
+        <v>4055</v>
+      </c>
+      <c r="BR4">
+        <v>4093</v>
+      </c>
+      <c r="BS4">
+        <v>4064</v>
+      </c>
+      <c r="BT4">
+        <v>211855</v>
+      </c>
+      <c r="BU4">
+        <v>0</v>
+      </c>
+      <c r="BV4">
+        <v>0</v>
+      </c>
+      <c r="BW4">
+        <v>0</v>
+      </c>
+      <c r="BX4">
+        <v>4082</v>
+      </c>
+      <c r="BY4">
+        <v>4097</v>
+      </c>
+      <c r="BZ4">
+        <v>4067</v>
+      </c>
+      <c r="CA4">
+        <v>500617</v>
+      </c>
+      <c r="CB4">
+        <v>97514</v>
+      </c>
+      <c r="CC4">
+        <v>97742</v>
+      </c>
+      <c r="CD4">
+        <v>100445</v>
+      </c>
+      <c r="CE4">
+        <v>4079</v>
+      </c>
+      <c r="CF4">
+        <v>4093</v>
+      </c>
+      <c r="CG4">
+        <v>4064</v>
+      </c>
+      <c r="CH4">
+        <v>133390</v>
+      </c>
+      <c r="CI4">
+        <v>68954</v>
+      </c>
+      <c r="CJ4">
+        <v>63390</v>
+      </c>
+      <c r="CK4">
+        <v>56684</v>
+      </c>
+      <c r="CL4">
+        <v>4065</v>
+      </c>
+      <c r="CM4">
+        <v>4074</v>
+      </c>
+      <c r="CN4">
+        <v>4040</v>
+      </c>
+      <c r="CO4">
+        <v>43423</v>
+      </c>
+      <c r="CP4">
+        <v>1812</v>
+      </c>
+      <c r="CQ4">
+        <v>1785</v>
+      </c>
+      <c r="CR4">
+        <v>0</v>
+      </c>
+      <c r="CS4">
+        <v>4052</v>
+      </c>
+      <c r="CT4">
+        <v>4074</v>
+      </c>
+      <c r="CU4">
+        <v>4040</v>
+      </c>
+    </row>
+    <row r="5" spans="1:256" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5">
+        <v>770623</v>
+      </c>
+      <c r="C5">
+        <v>189055</v>
+      </c>
+      <c r="D5">
+        <v>178100</v>
+      </c>
+      <c r="E5">
+        <v>196389</v>
+      </c>
+      <c r="F5">
+        <v>3857</v>
+      </c>
+      <c r="G5">
+        <v>3875</v>
+      </c>
+      <c r="H5">
+        <v>3844</v>
+      </c>
+      <c r="I5">
+        <v>333777</v>
+      </c>
+      <c r="J5">
+        <v>109535</v>
+      </c>
+      <c r="K5">
+        <v>108594</v>
+      </c>
+      <c r="L5">
+        <v>112466</v>
+      </c>
+      <c r="M5">
+        <v>3828</v>
+      </c>
+      <c r="N5">
+        <v>3864</v>
+      </c>
+      <c r="O5">
+        <v>3841</v>
+      </c>
+      <c r="P5">
+        <v>188744</v>
+      </c>
+      <c r="Q5">
+        <v>39640</v>
+      </c>
+      <c r="R5">
+        <v>42215</v>
+      </c>
+      <c r="S5">
+        <v>42263</v>
+      </c>
+      <c r="T5">
+        <v>3825</v>
+      </c>
+      <c r="U5">
+        <v>3861</v>
+      </c>
+      <c r="V5">
+        <v>3836</v>
+      </c>
+      <c r="W5">
+        <v>1636603</v>
+      </c>
+      <c r="X5">
+        <v>275352</v>
+      </c>
+      <c r="Y5">
+        <v>297548</v>
+      </c>
+      <c r="Z5">
+        <v>278316</v>
+      </c>
+      <c r="AA5">
+        <v>3981</v>
+      </c>
+      <c r="AB5">
+        <v>3991</v>
+      </c>
+      <c r="AC5">
+        <v>3967</v>
+      </c>
+      <c r="AD5">
+        <v>45694</v>
+      </c>
+      <c r="AE5">
+        <v>4174</v>
+      </c>
+      <c r="AF5">
+        <v>4142</v>
+      </c>
+      <c r="AG5">
+        <v>3555</v>
+      </c>
+      <c r="AH5">
+        <v>3981</v>
+      </c>
+      <c r="AI5">
+        <v>3989</v>
+      </c>
+      <c r="AJ5">
+        <v>3967</v>
+      </c>
+      <c r="AK5">
+        <v>383214</v>
+      </c>
+      <c r="AL5">
+        <v>93040</v>
+      </c>
+      <c r="AM5">
+        <v>96628</v>
+      </c>
+      <c r="AN5">
+        <v>92714</v>
+      </c>
+      <c r="AO5">
+        <v>3980</v>
+      </c>
+      <c r="AP5">
+        <v>3989</v>
+      </c>
+      <c r="AQ5">
+        <v>3965</v>
+      </c>
+      <c r="AR5">
+        <v>165812</v>
+      </c>
+      <c r="AS5">
+        <v>2063</v>
+      </c>
+      <c r="AT5">
+        <v>2083</v>
+      </c>
+      <c r="AU5">
+        <v>2031</v>
+      </c>
+      <c r="AV5">
+        <v>3987</v>
+      </c>
+      <c r="AW5">
+        <v>3997</v>
+      </c>
+      <c r="AX5">
+        <v>3974</v>
+      </c>
+      <c r="AY5">
+        <v>508015</v>
+      </c>
+      <c r="AZ5">
+        <v>130536</v>
+      </c>
+      <c r="BA5">
+        <v>138968</v>
+      </c>
+      <c r="BB5">
+        <v>129748</v>
+      </c>
+      <c r="BC5">
+        <v>4067</v>
+      </c>
+      <c r="BD5">
+        <v>4080</v>
+      </c>
+      <c r="BE5">
+        <v>4052</v>
+      </c>
+      <c r="BF5">
+        <v>2345131</v>
+      </c>
+      <c r="BG5">
+        <v>359095</v>
+      </c>
+      <c r="BH5">
+        <v>378947</v>
+      </c>
+      <c r="BI5">
+        <v>345271</v>
+      </c>
+      <c r="BJ5">
+        <v>4070</v>
+      </c>
+      <c r="BK5">
+        <v>4081</v>
+      </c>
+      <c r="BL5">
+        <v>4053</v>
+      </c>
+      <c r="BM5">
+        <v>63261</v>
+      </c>
+      <c r="BN5">
+        <v>0</v>
+      </c>
+      <c r="BO5">
+        <v>0</v>
+      </c>
+      <c r="BP5">
+        <v>0</v>
+      </c>
+      <c r="BQ5">
+        <v>4066</v>
+      </c>
+      <c r="BR5">
+        <v>4080</v>
+      </c>
+      <c r="BS5">
+        <v>4052</v>
+      </c>
+      <c r="BT5">
+        <v>211855</v>
+      </c>
+      <c r="BU5">
+        <v>0</v>
+      </c>
+      <c r="BV5">
+        <v>0</v>
+      </c>
+      <c r="BW5">
+        <v>0</v>
+      </c>
+      <c r="BX5">
+        <v>4069</v>
+      </c>
+      <c r="BY5">
+        <v>4082</v>
+      </c>
+      <c r="BZ5">
+        <v>4053</v>
+      </c>
+      <c r="CA5">
+        <v>500618</v>
+      </c>
+      <c r="CB5">
+        <v>97906</v>
+      </c>
+      <c r="CC5">
+        <v>97678</v>
+      </c>
+      <c r="CD5">
+        <v>100496</v>
+      </c>
+      <c r="CE5">
+        <v>4064</v>
+      </c>
+      <c r="CF5">
+        <v>4077</v>
+      </c>
+      <c r="CG5">
+        <v>4049</v>
+      </c>
+      <c r="CH5">
+        <v>133391</v>
+      </c>
+      <c r="CI5">
+        <v>52336</v>
+      </c>
+      <c r="CJ5">
+        <v>46762</v>
+      </c>
+      <c r="CK5">
+        <v>41600</v>
+      </c>
+      <c r="CL5">
+        <v>4054</v>
+      </c>
+      <c r="CM5">
+        <v>4067</v>
+      </c>
+      <c r="CN5">
+        <v>4035</v>
+      </c>
+      <c r="CO5">
+        <v>43423</v>
+      </c>
+      <c r="CP5">
+        <v>1810</v>
+      </c>
+      <c r="CQ5">
+        <v>1778</v>
+      </c>
+      <c r="CR5">
+        <v>0</v>
+      </c>
+      <c r="CS5">
+        <v>4046</v>
+      </c>
+      <c r="CT5">
+        <v>4068</v>
+      </c>
+      <c r="CU5">
+        <v>4036</v>
+      </c>
+    </row>
+    <row r="6" spans="1:256" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6">
+        <v>770625</v>
+      </c>
+      <c r="C6">
+        <v>193507</v>
+      </c>
+      <c r="D6">
+        <v>181341</v>
+      </c>
+      <c r="E6">
+        <v>210601</v>
+      </c>
+      <c r="F6">
+        <v>3860</v>
+      </c>
+      <c r="G6">
+        <v>3881</v>
+      </c>
+      <c r="H6">
+        <v>3844</v>
+      </c>
+      <c r="I6">
+        <v>333778</v>
+      </c>
+      <c r="J6">
+        <v>112867</v>
+      </c>
+      <c r="K6">
+        <v>111890</v>
+      </c>
+      <c r="L6">
+        <v>116291</v>
+      </c>
+      <c r="M6">
+        <v>3828</v>
+      </c>
+      <c r="N6">
+        <v>3868</v>
+      </c>
+      <c r="O6">
+        <v>3843</v>
+      </c>
+      <c r="P6">
+        <v>188744</v>
+      </c>
+      <c r="Q6">
+        <v>39377</v>
+      </c>
+      <c r="R6">
+        <v>41992</v>
+      </c>
+      <c r="S6">
+        <v>42377</v>
+      </c>
+      <c r="T6">
+        <v>3826</v>
+      </c>
+      <c r="U6">
+        <v>3868</v>
+      </c>
+      <c r="V6">
+        <v>3844</v>
+      </c>
+      <c r="W6">
+        <v>1636605</v>
+      </c>
+      <c r="X6">
+        <v>271458</v>
+      </c>
+      <c r="Y6">
+        <v>288276</v>
+      </c>
+      <c r="Z6">
+        <v>275728</v>
+      </c>
+      <c r="AA6">
+        <v>3988</v>
+      </c>
+      <c r="AB6">
+        <v>4001</v>
+      </c>
+      <c r="AC6">
+        <v>3973</v>
+      </c>
+      <c r="AD6">
+        <v>45694</v>
+      </c>
+      <c r="AE6">
+        <v>4155</v>
+      </c>
+      <c r="AF6">
+        <v>4177</v>
+      </c>
+      <c r="AG6">
+        <v>3576</v>
+      </c>
+      <c r="AH6">
+        <v>3987</v>
+      </c>
+      <c r="AI6">
+        <v>3997</v>
+      </c>
+      <c r="AJ6">
+        <v>3972</v>
+      </c>
+      <c r="AK6">
+        <v>383215</v>
+      </c>
+      <c r="AL6">
+        <v>91925</v>
+      </c>
+      <c r="AM6">
+        <v>96221</v>
+      </c>
+      <c r="AN6">
+        <v>92182</v>
+      </c>
+      <c r="AO6">
+        <v>3983</v>
+      </c>
+      <c r="AP6">
+        <v>3995</v>
+      </c>
+      <c r="AQ6">
+        <v>3969</v>
+      </c>
+      <c r="AR6">
+        <v>165812</v>
+      </c>
+      <c r="AS6">
+        <v>2029</v>
+      </c>
+      <c r="AT6">
+        <v>2068</v>
+      </c>
+      <c r="AU6">
+        <v>2024</v>
+      </c>
+      <c r="AV6">
+        <v>3987</v>
+      </c>
+      <c r="AW6">
+        <v>3998</v>
+      </c>
+      <c r="AX6">
+        <v>3971</v>
+      </c>
+      <c r="AY6">
+        <v>508016</v>
+      </c>
+      <c r="AZ6">
+        <v>131610</v>
+      </c>
+      <c r="BA6">
+        <v>140479</v>
+      </c>
+      <c r="BB6">
+        <v>132167</v>
+      </c>
+      <c r="BC6">
+        <v>4064</v>
+      </c>
+      <c r="BD6">
+        <v>4078</v>
+      </c>
+      <c r="BE6">
+        <v>4050</v>
+      </c>
+      <c r="BF6">
+        <v>2345135</v>
+      </c>
+      <c r="BG6">
+        <v>362643</v>
+      </c>
+      <c r="BH6">
+        <v>388704</v>
+      </c>
+      <c r="BI6">
+        <v>353403</v>
+      </c>
+      <c r="BJ6">
+        <v>4071</v>
+      </c>
+      <c r="BK6">
+        <v>4083</v>
+      </c>
+      <c r="BL6">
+        <v>4054</v>
+      </c>
+      <c r="BM6">
+        <v>63261</v>
+      </c>
+      <c r="BN6">
+        <v>0</v>
+      </c>
+      <c r="BO6">
+        <v>0</v>
+      </c>
+      <c r="BP6">
+        <v>0</v>
+      </c>
+      <c r="BQ6">
+        <v>4070</v>
+      </c>
+      <c r="BR6">
+        <v>4084</v>
+      </c>
+      <c r="BS6">
+        <v>4055</v>
+      </c>
+      <c r="BT6">
+        <v>211855</v>
+      </c>
+      <c r="BU6">
+        <v>0</v>
+      </c>
+      <c r="BV6">
+        <v>0</v>
+      </c>
+      <c r="BW6">
+        <v>0</v>
+      </c>
+      <c r="BX6">
+        <v>4073</v>
+      </c>
+      <c r="BY6">
+        <v>4087</v>
+      </c>
+      <c r="BZ6">
+        <v>4058</v>
+      </c>
+      <c r="CA6">
+        <v>500619</v>
+      </c>
+      <c r="CB6">
+        <v>94962</v>
+      </c>
+      <c r="CC6">
+        <v>97696</v>
+      </c>
+      <c r="CD6">
+        <v>100264</v>
+      </c>
+      <c r="CE6">
+        <v>4070</v>
+      </c>
+      <c r="CF6">
+        <v>4083</v>
+      </c>
+      <c r="CG6">
+        <v>4054</v>
+      </c>
+      <c r="CH6">
+        <v>133391</v>
+      </c>
+      <c r="CI6">
+        <v>53067</v>
+      </c>
+      <c r="CJ6">
+        <v>47389</v>
+      </c>
+      <c r="CK6">
+        <v>42043</v>
+      </c>
+      <c r="CL6">
+        <v>4059</v>
+      </c>
+      <c r="CM6">
+        <v>4074</v>
+      </c>
+      <c r="CN6">
+        <v>4041</v>
+      </c>
+      <c r="CO6">
+        <v>43423</v>
+      </c>
+      <c r="CP6">
+        <v>1814</v>
+      </c>
+      <c r="CQ6">
+        <v>1788</v>
+      </c>
+      <c r="CR6">
+        <v>0</v>
+      </c>
+      <c r="CS6">
+        <v>4053</v>
+      </c>
+      <c r="CT6">
+        <v>4075</v>
+      </c>
+      <c r="CU6">
+        <v>4041</v>
+      </c>
+    </row>
+    <row r="7" spans="1:256" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7">
+        <v>770627</v>
+      </c>
+      <c r="C7">
+        <v>196011</v>
+      </c>
+      <c r="D7">
+        <v>177459</v>
+      </c>
+      <c r="E7">
+        <v>200099</v>
+      </c>
+      <c r="F7">
+        <v>3852</v>
+      </c>
+      <c r="G7">
+        <v>3874</v>
+      </c>
+      <c r="H7">
+        <v>3840</v>
+      </c>
+      <c r="I7">
+        <v>333780</v>
+      </c>
+      <c r="J7">
+        <v>107928</v>
+      </c>
+      <c r="K7">
+        <v>107625</v>
+      </c>
+      <c r="L7">
+        <v>111742</v>
+      </c>
+      <c r="M7">
+        <v>3823</v>
+      </c>
+      <c r="N7">
+        <v>3863</v>
+      </c>
+      <c r="O7">
+        <v>3836</v>
+      </c>
+      <c r="P7">
+        <v>188744</v>
+      </c>
+      <c r="Q7">
+        <v>39115</v>
+      </c>
+      <c r="R7">
+        <v>41892</v>
+      </c>
+      <c r="S7">
+        <v>42018</v>
+      </c>
+      <c r="T7">
+        <v>3823</v>
+      </c>
+      <c r="U7">
+        <v>3860</v>
+      </c>
+      <c r="V7">
+        <v>3835</v>
+      </c>
+      <c r="W7">
+        <v>1636608</v>
+      </c>
+      <c r="X7">
+        <v>274546</v>
+      </c>
+      <c r="Y7">
+        <v>288744</v>
+      </c>
+      <c r="Z7">
+        <v>276671</v>
+      </c>
+      <c r="AA7">
+        <v>3996</v>
+      </c>
+      <c r="AB7">
+        <v>4008</v>
+      </c>
+      <c r="AC7">
+        <v>3984</v>
+      </c>
+      <c r="AD7">
+        <v>45694</v>
+      </c>
+      <c r="AE7">
+        <v>4181</v>
+      </c>
+      <c r="AF7">
+        <v>4195</v>
+      </c>
+      <c r="AG7">
+        <v>3612</v>
+      </c>
+      <c r="AH7">
+        <v>3995</v>
+      </c>
+      <c r="AI7">
+        <v>4005</v>
+      </c>
+      <c r="AJ7">
+        <v>3982</v>
+      </c>
+      <c r="AK7">
+        <v>383215</v>
+      </c>
+      <c r="AL7">
+        <v>93747</v>
+      </c>
+      <c r="AM7">
+        <v>97834</v>
+      </c>
+      <c r="AN7">
+        <v>93199</v>
+      </c>
+      <c r="AO7">
+        <v>3993</v>
+      </c>
+      <c r="AP7">
+        <v>4005</v>
+      </c>
+      <c r="AQ7">
+        <v>3981</v>
+      </c>
+      <c r="AR7">
+        <v>165812</v>
+      </c>
+      <c r="AS7">
+        <v>2048</v>
+      </c>
+      <c r="AT7">
+        <v>2076</v>
+      </c>
+      <c r="AU7">
+        <v>2049</v>
+      </c>
+      <c r="AV7">
+        <v>3997</v>
+      </c>
+      <c r="AW7">
+        <v>4008</v>
+      </c>
+      <c r="AX7">
+        <v>3983</v>
+      </c>
+      <c r="AY7">
+        <v>508018</v>
+      </c>
+      <c r="AZ7">
+        <v>133438</v>
+      </c>
+      <c r="BA7">
+        <v>141442</v>
+      </c>
+      <c r="BB7">
+        <v>132523</v>
+      </c>
+      <c r="BC7">
+        <v>4073</v>
+      </c>
+      <c r="BD7">
+        <v>4087</v>
+      </c>
+      <c r="BE7">
+        <v>4059</v>
+      </c>
+      <c r="BF7">
+        <v>2345139</v>
+      </c>
+      <c r="BG7">
+        <v>359985</v>
+      </c>
+      <c r="BH7">
+        <v>393174</v>
+      </c>
+      <c r="BI7">
+        <v>358140</v>
+      </c>
+      <c r="BJ7">
+        <v>4077</v>
+      </c>
+      <c r="BK7">
+        <v>4089</v>
+      </c>
+      <c r="BL7">
+        <v>4060</v>
+      </c>
+      <c r="BM7">
+        <v>63261</v>
+      </c>
+      <c r="BN7">
+        <v>0</v>
+      </c>
+      <c r="BO7">
+        <v>0</v>
+      </c>
+      <c r="BP7">
+        <v>0</v>
+      </c>
+      <c r="BQ7">
+        <v>4069</v>
+      </c>
+      <c r="BR7">
+        <v>4084</v>
+      </c>
+      <c r="BS7">
+        <v>4055</v>
+      </c>
+      <c r="BT7">
+        <v>211855</v>
+      </c>
+      <c r="BU7">
+        <v>0</v>
+      </c>
+      <c r="BV7">
+        <v>0</v>
+      </c>
+      <c r="BW7">
+        <v>0</v>
+      </c>
+      <c r="BX7">
+        <v>4069</v>
+      </c>
+      <c r="BY7">
+        <v>4084</v>
+      </c>
+      <c r="BZ7">
+        <v>4053</v>
+      </c>
+      <c r="CA7">
+        <v>500620</v>
+      </c>
+      <c r="CB7">
+        <v>95424</v>
+      </c>
+      <c r="CC7">
+        <v>98064</v>
+      </c>
+      <c r="CD7">
+        <v>100515</v>
+      </c>
+      <c r="CE7">
+        <v>4066</v>
+      </c>
+      <c r="CF7">
+        <v>4079</v>
+      </c>
+      <c r="CG7">
+        <v>4050</v>
+      </c>
+      <c r="CH7">
+        <v>133392</v>
+      </c>
+      <c r="CI7">
+        <v>53093</v>
+      </c>
+      <c r="CJ7">
+        <v>47302</v>
+      </c>
+      <c r="CK7">
+        <v>41906</v>
+      </c>
+      <c r="CL7">
+        <v>4054</v>
+      </c>
+      <c r="CM7">
+        <v>4069</v>
+      </c>
+      <c r="CN7">
+        <v>4037</v>
+      </c>
+      <c r="CO7">
+        <v>43423</v>
+      </c>
+      <c r="CP7">
+        <v>1810</v>
+      </c>
+      <c r="CQ7">
+        <v>1786</v>
+      </c>
+      <c r="CR7">
+        <v>0</v>
+      </c>
+      <c r="CS7">
+        <v>4048</v>
+      </c>
+      <c r="CT7">
+        <v>4069</v>
+      </c>
+      <c r="CU7">
+        <v>4037</v>
+      </c>
+    </row>
+    <row r="8" spans="1:256" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8">
+        <v>770629</v>
+      </c>
+      <c r="C8">
+        <v>194771</v>
+      </c>
+      <c r="D8">
+        <v>178042</v>
+      </c>
+      <c r="E8">
+        <v>199709</v>
+      </c>
+      <c r="F8">
+        <v>3837</v>
+      </c>
+      <c r="G8">
+        <v>3858</v>
+      </c>
+      <c r="H8">
+        <v>3823</v>
+      </c>
+      <c r="I8">
+        <v>333781</v>
+      </c>
+      <c r="J8">
+        <v>107592</v>
+      </c>
+      <c r="K8">
+        <v>107135</v>
+      </c>
+      <c r="L8">
+        <v>111105</v>
+      </c>
+      <c r="M8">
+        <v>3809</v>
+      </c>
+      <c r="N8">
+        <v>3846</v>
+      </c>
+      <c r="O8">
+        <v>3821</v>
+      </c>
+      <c r="P8">
+        <v>188745</v>
+      </c>
+      <c r="Q8">
+        <v>39039</v>
+      </c>
+      <c r="R8">
+        <v>41940</v>
+      </c>
+      <c r="S8">
+        <v>41861</v>
+      </c>
+      <c r="T8">
+        <v>3806</v>
+      </c>
+      <c r="U8">
+        <v>3843</v>
+      </c>
+      <c r="V8">
+        <v>3816</v>
+      </c>
+      <c r="W8">
+        <v>1636611</v>
+      </c>
+      <c r="X8">
+        <v>277691</v>
+      </c>
+      <c r="Y8">
+        <v>294418</v>
+      </c>
+      <c r="Z8">
+        <v>279039</v>
+      </c>
+      <c r="AA8">
+        <v>3960</v>
+      </c>
+      <c r="AB8">
+        <v>3972</v>
+      </c>
+      <c r="AC8">
+        <v>3946</v>
+      </c>
+      <c r="AD8">
+        <v>45694</v>
+      </c>
+      <c r="AE8">
+        <v>4179</v>
+      </c>
+      <c r="AF8">
+        <v>4141</v>
+      </c>
+      <c r="AG8">
+        <v>3594</v>
+      </c>
+      <c r="AH8">
+        <v>3958</v>
+      </c>
+      <c r="AI8">
+        <v>3968</v>
+      </c>
+      <c r="AJ8">
+        <v>3950</v>
+      </c>
+      <c r="AK8">
+        <v>383216</v>
+      </c>
+      <c r="AL8">
+        <v>93669</v>
+      </c>
+      <c r="AM8">
+        <v>98085</v>
+      </c>
+      <c r="AN8">
+        <v>93620</v>
+      </c>
+      <c r="AO8">
+        <v>3959</v>
+      </c>
+      <c r="AP8">
+        <v>3969</v>
+      </c>
+      <c r="AQ8">
+        <v>3945</v>
+      </c>
+      <c r="AR8">
+        <v>165812</v>
+      </c>
+      <c r="AS8">
+        <v>2033</v>
+      </c>
+      <c r="AT8">
+        <v>2058</v>
+      </c>
+      <c r="AU8">
+        <v>2020</v>
+      </c>
+      <c r="AV8">
+        <v>3966</v>
+      </c>
+      <c r="AW8">
+        <v>3977</v>
+      </c>
+      <c r="AX8">
+        <v>3952</v>
+      </c>
+      <c r="AY8">
+        <v>508019</v>
+      </c>
+      <c r="AZ8">
+        <v>131900</v>
+      </c>
+      <c r="BA8">
+        <v>140419</v>
+      </c>
+      <c r="BB8">
+        <v>131273</v>
+      </c>
+      <c r="BC8">
+        <v>4051</v>
+      </c>
+      <c r="BD8">
+        <v>4064</v>
+      </c>
+      <c r="BE8">
+        <v>4037</v>
+      </c>
+      <c r="BF8">
+        <v>2345143</v>
+      </c>
+      <c r="BG8">
+        <v>357424</v>
+      </c>
+      <c r="BH8">
+        <v>390837</v>
+      </c>
+      <c r="BI8">
+        <v>356545</v>
+      </c>
+      <c r="BJ8">
+        <v>4054</v>
+      </c>
+      <c r="BK8">
+        <v>4065</v>
+      </c>
+      <c r="BL8">
+        <v>4035</v>
+      </c>
+      <c r="BM8">
+        <v>63261</v>
+      </c>
+      <c r="BN8">
+        <v>0</v>
+      </c>
+      <c r="BO8">
+        <v>0</v>
+      </c>
+      <c r="BP8">
+        <v>0</v>
+      </c>
+      <c r="BQ8">
+        <v>4049</v>
+      </c>
+      <c r="BR8">
+        <v>4061</v>
+      </c>
+      <c r="BS8">
+        <v>4033</v>
+      </c>
+      <c r="BT8">
+        <v>211855</v>
+      </c>
+      <c r="BU8">
+        <v>0</v>
+      </c>
+      <c r="BV8">
+        <v>0</v>
+      </c>
+      <c r="BW8">
+        <v>0</v>
+      </c>
+      <c r="BX8">
+        <v>4048</v>
+      </c>
+      <c r="BY8">
+        <v>4062</v>
+      </c>
+      <c r="BZ8">
+        <v>4034</v>
+      </c>
+      <c r="CA8">
+        <v>500621</v>
+      </c>
+      <c r="CB8">
+        <v>95041</v>
+      </c>
+      <c r="CC8">
+        <v>97507</v>
+      </c>
+      <c r="CD8">
+        <v>100523</v>
+      </c>
+      <c r="CE8">
+        <v>4047</v>
+      </c>
+      <c r="CF8">
+        <v>4059</v>
+      </c>
+      <c r="CG8">
+        <v>4030</v>
+      </c>
+      <c r="CH8">
+        <v>133392</v>
+      </c>
+      <c r="CI8">
+        <v>52733</v>
+      </c>
+      <c r="CJ8">
+        <v>46749</v>
+      </c>
+      <c r="CK8">
+        <v>41643</v>
+      </c>
+      <c r="CL8">
+        <v>4033</v>
+      </c>
+      <c r="CM8">
+        <v>4048</v>
+      </c>
+      <c r="CN8">
+        <v>4017</v>
+      </c>
+      <c r="CO8">
+        <v>43423</v>
+      </c>
+      <c r="CP8">
+        <v>1802</v>
+      </c>
+      <c r="CQ8">
+        <v>1774</v>
+      </c>
+      <c r="CR8">
+        <v>0</v>
+      </c>
+      <c r="CS8">
+        <v>4029</v>
+      </c>
+      <c r="CT8">
+        <v>4049</v>
+      </c>
+      <c r="CU8">
+        <v>4018</v>
+      </c>
+    </row>
+    <row r="9" spans="1:256" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9">
+        <v>770631</v>
+      </c>
+      <c r="C9">
+        <v>191222</v>
+      </c>
+      <c r="D9">
+        <v>174606</v>
+      </c>
+      <c r="E9">
+        <v>193246</v>
+      </c>
+      <c r="F9">
+        <v>3860</v>
+      </c>
+      <c r="G9">
+        <v>3881</v>
+      </c>
+      <c r="H9">
+        <v>3849</v>
+      </c>
+      <c r="I9">
+        <v>333782</v>
+      </c>
+      <c r="J9">
+        <v>105335</v>
+      </c>
+      <c r="K9">
+        <v>105090</v>
+      </c>
+      <c r="L9">
+        <v>108549</v>
+      </c>
+      <c r="M9">
+        <v>3831</v>
+      </c>
+      <c r="N9">
+        <v>3870</v>
+      </c>
+      <c r="O9">
+        <v>3843</v>
+      </c>
+      <c r="P9">
+        <v>188745</v>
+      </c>
+      <c r="Q9">
+        <v>39069</v>
+      </c>
+      <c r="R9">
+        <v>41761</v>
+      </c>
+      <c r="S9">
+        <v>41662</v>
+      </c>
+      <c r="T9">
+        <v>3824</v>
+      </c>
+      <c r="U9">
+        <v>3859</v>
+      </c>
+      <c r="V9">
+        <v>3835</v>
+      </c>
+      <c r="W9">
+        <v>1636614</v>
+      </c>
+      <c r="X9">
+        <v>289173</v>
+      </c>
+      <c r="Y9">
+        <v>307390</v>
+      </c>
+      <c r="Z9">
+        <v>288089</v>
+      </c>
+      <c r="AA9">
+        <v>3980</v>
+      </c>
+      <c r="AB9">
+        <v>3991</v>
+      </c>
+      <c r="AC9">
+        <v>3968</v>
+      </c>
+      <c r="AD9">
+        <v>45694</v>
+      </c>
+      <c r="AE9">
+        <v>4178</v>
+      </c>
+      <c r="AF9">
+        <v>4185</v>
+      </c>
+      <c r="AG9">
+        <v>3578</v>
+      </c>
+      <c r="AH9">
+        <v>3983</v>
+      </c>
+      <c r="AI9">
+        <v>3987</v>
+      </c>
+      <c r="AJ9">
+        <v>3967</v>
+      </c>
+      <c r="AK9">
+        <v>383217</v>
+      </c>
+      <c r="AL9">
+        <v>106044</v>
+      </c>
+      <c r="AM9">
+        <v>109493</v>
+      </c>
+      <c r="AN9">
+        <v>104572</v>
+      </c>
+      <c r="AO9">
+        <v>3981</v>
+      </c>
+      <c r="AP9">
+        <v>3990</v>
+      </c>
+      <c r="AQ9">
+        <v>3968</v>
+      </c>
+      <c r="AR9">
+        <v>165812</v>
+      </c>
+      <c r="AS9">
+        <v>2037</v>
+      </c>
+      <c r="AT9">
+        <v>2050</v>
+      </c>
+      <c r="AU9">
+        <v>2014</v>
+      </c>
+      <c r="AV9">
+        <v>3980</v>
+      </c>
+      <c r="AW9">
+        <v>3987</v>
+      </c>
+      <c r="AX9">
+        <v>3965</v>
+      </c>
+      <c r="AY9">
+        <v>508020</v>
+      </c>
+      <c r="AZ9">
+        <v>132848</v>
+      </c>
+      <c r="BA9">
+        <v>140968</v>
+      </c>
+      <c r="BB9">
+        <v>131991</v>
+      </c>
+      <c r="BC9">
+        <v>4048</v>
+      </c>
+      <c r="BD9">
+        <v>4058</v>
+      </c>
+      <c r="BE9">
+        <v>4032</v>
+      </c>
+      <c r="BF9">
+        <v>2345148</v>
+      </c>
+      <c r="BG9">
+        <v>370591</v>
+      </c>
+      <c r="BH9">
+        <v>399310</v>
+      </c>
+      <c r="BI9">
+        <v>361183</v>
+      </c>
+      <c r="BJ9">
+        <v>4051</v>
+      </c>
+      <c r="BK9">
+        <v>4058</v>
+      </c>
+      <c r="BL9">
+        <v>4033</v>
+      </c>
+      <c r="BM9">
+        <v>63261</v>
+      </c>
+      <c r="BN9">
+        <v>0</v>
+      </c>
+      <c r="BO9">
+        <v>0</v>
+      </c>
+      <c r="BP9">
+        <v>0</v>
+      </c>
+      <c r="BQ9">
+        <v>4043</v>
+      </c>
+      <c r="BR9">
+        <v>4053</v>
+      </c>
+      <c r="BS9">
+        <v>4027</v>
+      </c>
+      <c r="BT9">
+        <v>211855</v>
+      </c>
+      <c r="BU9">
+        <v>0</v>
+      </c>
+      <c r="BV9">
+        <v>0</v>
+      </c>
+      <c r="BW9">
+        <v>0</v>
+      </c>
+      <c r="BX9">
+        <v>4059</v>
+      </c>
+      <c r="BY9">
+        <v>4075</v>
+      </c>
+      <c r="BZ9">
+        <v>4046</v>
+      </c>
+      <c r="CA9">
+        <v>500622</v>
+      </c>
+      <c r="CB9">
+        <v>95298</v>
+      </c>
+      <c r="CC9">
+        <v>98078</v>
+      </c>
+      <c r="CD9">
+        <v>100864</v>
+      </c>
+      <c r="CE9">
+        <v>4055</v>
+      </c>
+      <c r="CF9">
+        <v>4071</v>
+      </c>
+      <c r="CG9">
+        <v>4045</v>
+      </c>
+      <c r="CH9">
+        <v>133393</v>
+      </c>
+      <c r="CI9">
+        <v>53029</v>
+      </c>
+      <c r="CJ9">
+        <v>47114</v>
+      </c>
+      <c r="CK9">
+        <v>42115</v>
+      </c>
+      <c r="CL9">
+        <v>4051</v>
+      </c>
+      <c r="CM9">
+        <v>4066</v>
+      </c>
+      <c r="CN9">
+        <v>4035</v>
+      </c>
+      <c r="CO9">
+        <v>43423</v>
+      </c>
+      <c r="CP9">
+        <v>1813</v>
+      </c>
+      <c r="CQ9">
+        <v>1784</v>
+      </c>
+      <c r="CR9">
+        <v>0</v>
+      </c>
+      <c r="CS9">
+        <v>4047</v>
+      </c>
+      <c r="CT9">
+        <v>4071</v>
+      </c>
+      <c r="CU9">
+        <v>4042</v>
+      </c>
+    </row>
+    <row r="10" spans="1:256" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10">
+        <v>770633</v>
+      </c>
+      <c r="C10">
+        <v>203143</v>
+      </c>
+      <c r="D10">
+        <v>175730</v>
+      </c>
+      <c r="E10">
+        <v>199468</v>
+      </c>
+      <c r="F10">
+        <v>3855</v>
+      </c>
+      <c r="G10">
+        <v>3878</v>
+      </c>
+      <c r="H10">
+        <v>3842</v>
+      </c>
+      <c r="I10">
+        <v>333783</v>
+      </c>
+      <c r="J10">
+        <v>104702</v>
+      </c>
+      <c r="K10">
+        <v>104748</v>
+      </c>
+      <c r="L10">
+        <v>108830</v>
+      </c>
+      <c r="M10">
+        <v>3827</v>
+      </c>
+      <c r="N10">
+        <v>3868</v>
+      </c>
+      <c r="O10">
+        <v>3840</v>
+      </c>
+      <c r="P10">
+        <v>188746</v>
+      </c>
+      <c r="Q10">
+        <v>38875</v>
+      </c>
+      <c r="R10">
+        <v>41853</v>
+      </c>
+      <c r="S10">
+        <v>41878</v>
+      </c>
+      <c r="T10">
+        <v>3827</v>
+      </c>
+      <c r="U10">
+        <v>3866</v>
+      </c>
+      <c r="V10">
+        <v>3838</v>
+      </c>
+      <c r="W10">
+        <v>1636617</v>
+      </c>
+      <c r="X10">
+        <v>284290</v>
+      </c>
+      <c r="Y10">
+        <v>304114</v>
+      </c>
+      <c r="Z10">
+        <v>284978</v>
+      </c>
+      <c r="AA10">
+        <v>3984</v>
+      </c>
+      <c r="AB10">
+        <v>3996</v>
+      </c>
+      <c r="AC10">
+        <v>3972</v>
+      </c>
+      <c r="AD10">
+        <v>45694</v>
+      </c>
+      <c r="AE10">
+        <v>4189</v>
+      </c>
+      <c r="AF10">
+        <v>4181</v>
+      </c>
+      <c r="AG10">
+        <v>3606</v>
+      </c>
+      <c r="AH10">
+        <v>3986</v>
+      </c>
+      <c r="AI10">
+        <v>3995</v>
+      </c>
+      <c r="AJ10">
+        <v>3973</v>
+      </c>
+      <c r="AK10">
+        <v>383218</v>
+      </c>
+      <c r="AL10">
+        <v>99166</v>
+      </c>
+      <c r="AM10">
+        <v>103155</v>
+      </c>
+      <c r="AN10">
+        <v>98643</v>
+      </c>
+      <c r="AO10">
+        <v>3982</v>
+      </c>
+      <c r="AP10">
+        <v>3992</v>
+      </c>
+      <c r="AQ10">
+        <v>3969</v>
+      </c>
+      <c r="AR10">
+        <v>165812</v>
+      </c>
+      <c r="AS10">
+        <v>2045</v>
+      </c>
+      <c r="AT10">
+        <v>2067</v>
+      </c>
+      <c r="AU10">
+        <v>2031</v>
+      </c>
+      <c r="AV10">
+        <v>3990</v>
+      </c>
+      <c r="AW10">
+        <v>3999</v>
+      </c>
+      <c r="AX10">
+        <v>3975</v>
+      </c>
+      <c r="AY10">
+        <v>508022</v>
+      </c>
+      <c r="AZ10">
+        <v>133433</v>
+      </c>
+      <c r="BA10">
+        <v>146352</v>
+      </c>
+      <c r="BB10">
+        <v>132124</v>
+      </c>
+      <c r="BC10">
+        <v>4067</v>
+      </c>
+      <c r="BD10">
+        <v>4079</v>
+      </c>
+      <c r="BE10">
+        <v>4052</v>
+      </c>
+      <c r="BF10">
+        <v>2345152</v>
+      </c>
+      <c r="BG10">
+        <v>375172</v>
+      </c>
+      <c r="BH10">
+        <v>407130</v>
+      </c>
+      <c r="BI10">
+        <v>364570</v>
+      </c>
+      <c r="BJ10">
+        <v>4070</v>
+      </c>
+      <c r="BK10">
+        <v>4081</v>
+      </c>
+      <c r="BL10">
+        <v>4053</v>
+      </c>
+      <c r="BM10">
+        <v>63261</v>
+      </c>
+      <c r="BN10">
+        <v>0</v>
+      </c>
+      <c r="BO10">
+        <v>0</v>
+      </c>
+      <c r="BP10">
+        <v>0</v>
+      </c>
+      <c r="BQ10">
+        <v>4065</v>
+      </c>
+      <c r="BR10">
+        <v>4077</v>
+      </c>
+      <c r="BS10">
+        <v>4051</v>
+      </c>
+      <c r="BT10">
+        <v>211855</v>
+      </c>
+      <c r="BU10">
+        <v>0</v>
+      </c>
+      <c r="BV10">
+        <v>0</v>
+      </c>
+      <c r="BW10">
+        <v>0</v>
+      </c>
+      <c r="BX10">
+        <v>4067</v>
+      </c>
+      <c r="BY10">
+        <v>4079</v>
+      </c>
+      <c r="BZ10">
+        <v>4050</v>
+      </c>
+      <c r="CA10">
+        <v>500623</v>
+      </c>
+      <c r="CB10">
+        <v>92848</v>
+      </c>
+      <c r="CC10">
+        <v>94988</v>
+      </c>
+      <c r="CD10">
+        <v>97835</v>
+      </c>
+      <c r="CE10">
+        <v>4062</v>
+      </c>
+      <c r="CF10">
+        <v>4074</v>
+      </c>
+      <c r="CG10">
+        <v>4045</v>
+      </c>
+      <c r="CH10">
+        <v>133393</v>
+      </c>
+      <c r="CI10">
+        <v>52759</v>
+      </c>
+      <c r="CJ10">
+        <v>46902</v>
+      </c>
+      <c r="CK10">
+        <v>41593</v>
+      </c>
+      <c r="CL10">
+        <v>4050</v>
+      </c>
+      <c r="CM10">
+        <v>4064</v>
+      </c>
+      <c r="CN10">
+        <v>4031</v>
+      </c>
+      <c r="CO10">
+        <v>43423</v>
+      </c>
+      <c r="CP10">
+        <v>1807</v>
+      </c>
+      <c r="CQ10">
+        <v>1780</v>
+      </c>
+      <c r="CR10">
+        <v>0</v>
+      </c>
+      <c r="CS10">
+        <v>4045</v>
+      </c>
+      <c r="CT10">
+        <v>4065</v>
+      </c>
+      <c r="CU10">
+        <v>4036</v>
+      </c>
+    </row>
+    <row r="11" spans="1:256" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11">
+        <v>770635</v>
+      </c>
+      <c r="C11">
+        <v>189057</v>
+      </c>
+      <c r="D11">
+        <v>173900</v>
+      </c>
+      <c r="E11">
+        <v>194227</v>
+      </c>
+      <c r="F11">
+        <v>3842</v>
+      </c>
+      <c r="G11">
+        <v>3864</v>
+      </c>
+      <c r="H11">
+        <v>3830</v>
+      </c>
+      <c r="I11">
+        <v>333784</v>
+      </c>
+      <c r="J11">
+        <v>103216</v>
+      </c>
+      <c r="K11">
+        <v>102976</v>
+      </c>
+      <c r="L11">
+        <v>106976</v>
+      </c>
+      <c r="M11">
+        <v>3817</v>
+      </c>
+      <c r="N11">
+        <v>3856</v>
+      </c>
+      <c r="O11">
+        <v>3829</v>
+      </c>
+      <c r="P11">
+        <v>188746</v>
+      </c>
+      <c r="Q11">
+        <v>39017</v>
+      </c>
+      <c r="R11">
+        <v>41812</v>
+      </c>
+      <c r="S11">
+        <v>41810</v>
+      </c>
+      <c r="T11">
+        <v>3815</v>
+      </c>
+      <c r="U11">
+        <v>3852</v>
+      </c>
+      <c r="V11">
+        <v>3827</v>
+      </c>
+      <c r="W11">
+        <v>1636620</v>
+      </c>
+      <c r="X11">
+        <v>298628</v>
+      </c>
+      <c r="Y11">
+        <v>316309</v>
+      </c>
+      <c r="Z11">
+        <v>296401</v>
+      </c>
+      <c r="AA11">
+        <v>3978</v>
+      </c>
+      <c r="AB11">
+        <v>3989</v>
+      </c>
+      <c r="AC11">
+        <v>3964</v>
+      </c>
+      <c r="AD11">
+        <v>45694</v>
+      </c>
+      <c r="AE11">
+        <v>4224</v>
+      </c>
+      <c r="AF11">
+        <v>4163</v>
+      </c>
+      <c r="AG11">
+        <v>3610</v>
+      </c>
+      <c r="AH11">
+        <v>3977</v>
+      </c>
+      <c r="AI11">
+        <v>3985</v>
+      </c>
+      <c r="AJ11">
+        <v>3963</v>
+      </c>
+      <c r="AK11">
+        <v>383219</v>
+      </c>
+      <c r="AL11">
+        <v>109335</v>
+      </c>
+      <c r="AM11">
+        <v>114930</v>
+      </c>
+      <c r="AN11">
+        <v>108617</v>
+      </c>
+      <c r="AO11">
+        <v>3971</v>
+      </c>
+      <c r="AP11">
+        <v>3978</v>
+      </c>
+      <c r="AQ11">
+        <v>3955</v>
+      </c>
+      <c r="AR11">
+        <v>165812</v>
+      </c>
+      <c r="AS11">
+        <v>2046</v>
+      </c>
+      <c r="AT11">
+        <v>2067</v>
+      </c>
+      <c r="AU11">
+        <v>2024</v>
+      </c>
+      <c r="AV11">
+        <v>3973</v>
+      </c>
+      <c r="AW11">
+        <v>3982</v>
+      </c>
+      <c r="AX11">
+        <v>3958</v>
+      </c>
+      <c r="AY11">
+        <v>508023</v>
+      </c>
+      <c r="AZ11">
+        <v>133213</v>
+      </c>
+      <c r="BA11">
+        <v>145832</v>
+      </c>
+      <c r="BB11">
+        <v>132442</v>
+      </c>
+      <c r="BC11">
+        <v>4052</v>
+      </c>
+      <c r="BD11">
+        <v>4066</v>
+      </c>
+      <c r="BE11">
+        <v>4038</v>
+      </c>
+      <c r="BF11">
+        <v>2345156</v>
+      </c>
+      <c r="BG11">
+        <v>371072</v>
+      </c>
+      <c r="BH11">
+        <v>398992</v>
+      </c>
+      <c r="BI11">
+        <v>357584</v>
+      </c>
+      <c r="BJ11">
+        <v>4055</v>
+      </c>
+      <c r="BK11">
+        <v>4067</v>
+      </c>
+      <c r="BL11">
+        <v>4039</v>
+      </c>
+      <c r="BM11">
+        <v>63261</v>
+      </c>
+      <c r="BN11">
+        <v>0</v>
+      </c>
+      <c r="BO11">
+        <v>0</v>
+      </c>
+      <c r="BP11">
+        <v>0</v>
+      </c>
+      <c r="BQ11">
+        <v>4053</v>
+      </c>
+      <c r="BR11">
+        <v>4067</v>
+      </c>
+      <c r="BS11">
+        <v>4044</v>
+      </c>
+      <c r="BT11">
+        <v>211855</v>
+      </c>
+      <c r="BU11">
+        <v>0</v>
+      </c>
+      <c r="BV11">
+        <v>0</v>
+      </c>
+      <c r="BW11">
+        <v>0</v>
+      </c>
+      <c r="BX11">
+        <v>4060</v>
+      </c>
+      <c r="BY11">
+        <v>4073</v>
+      </c>
+      <c r="BZ11">
+        <v>4045</v>
+      </c>
+      <c r="CA11">
+        <v>500624</v>
+      </c>
+      <c r="CB11">
+        <v>98100</v>
+      </c>
+      <c r="CC11">
+        <v>94674</v>
+      </c>
+      <c r="CD11">
+        <v>97867</v>
+      </c>
+      <c r="CE11">
+        <v>4054</v>
+      </c>
+      <c r="CF11">
+        <v>4067</v>
+      </c>
+      <c r="CG11">
+        <v>4036</v>
+      </c>
+      <c r="CH11">
+        <v>133393</v>
+      </c>
+      <c r="CI11">
+        <v>52723</v>
+      </c>
+      <c r="CJ11">
+        <v>46883</v>
+      </c>
+      <c r="CK11">
+        <v>41727</v>
+      </c>
+      <c r="CL11">
+        <v>4041</v>
+      </c>
+      <c r="CM11">
+        <v>4056</v>
+      </c>
+      <c r="CN11">
+        <v>4023</v>
+      </c>
+      <c r="CO11">
+        <v>43423</v>
+      </c>
+      <c r="CP11">
+        <v>1809</v>
+      </c>
+      <c r="CQ11">
+        <v>1781</v>
+      </c>
+      <c r="CR11">
+        <v>0</v>
+      </c>
+      <c r="CS11">
+        <v>4035</v>
+      </c>
+      <c r="CT11">
+        <v>4056</v>
+      </c>
+      <c r="CU11">
+        <v>4023</v>
+      </c>
+    </row>
+    <row r="12" spans="1:256" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12">
+        <v>770637</v>
+      </c>
+      <c r="C12">
+        <v>190866</v>
+      </c>
+      <c r="D12">
+        <v>177171</v>
+      </c>
+      <c r="E12">
+        <v>192689</v>
+      </c>
+      <c r="F12">
+        <v>3853</v>
+      </c>
+      <c r="G12">
+        <v>3876</v>
+      </c>
+      <c r="H12">
+        <v>3838</v>
+      </c>
+      <c r="I12">
+        <v>333785</v>
+      </c>
+      <c r="J12">
+        <v>106905</v>
+      </c>
+      <c r="K12">
+        <v>107076</v>
+      </c>
+      <c r="L12">
+        <v>111361</v>
+      </c>
+      <c r="M12">
+        <v>3821</v>
+      </c>
+      <c r="N12">
+        <v>3862</v>
+      </c>
+      <c r="O12">
+        <v>3833</v>
+      </c>
+      <c r="P12">
+        <v>188746</v>
+      </c>
+      <c r="Q12">
+        <v>38900</v>
+      </c>
+      <c r="R12">
+        <v>41918</v>
+      </c>
+      <c r="S12">
+        <v>41916</v>
+      </c>
+      <c r="T12">
+        <v>3814</v>
+      </c>
+      <c r="U12">
+        <v>3856</v>
+      </c>
+      <c r="V12">
+        <v>3826</v>
+      </c>
+      <c r="W12">
+        <v>1636623</v>
+      </c>
+      <c r="X12">
+        <v>280043</v>
+      </c>
+      <c r="Y12">
+        <v>301700</v>
+      </c>
+      <c r="Z12">
+        <v>280742</v>
+      </c>
+      <c r="AA12">
+        <v>3973</v>
+      </c>
+      <c r="AB12">
+        <v>3986</v>
+      </c>
+      <c r="AC12">
+        <v>3959</v>
+      </c>
+      <c r="AD12">
+        <v>45694</v>
+      </c>
+      <c r="AE12">
+        <v>4209</v>
+      </c>
+      <c r="AF12">
+        <v>4174</v>
+      </c>
+      <c r="AG12">
+        <v>3654</v>
+      </c>
+      <c r="AH12">
+        <v>3973</v>
+      </c>
+      <c r="AI12">
+        <v>3983</v>
+      </c>
+      <c r="AJ12">
+        <v>3958</v>
+      </c>
+      <c r="AK12">
+        <v>383220</v>
+      </c>
+      <c r="AL12">
+        <v>91634</v>
+      </c>
+      <c r="AM12">
+        <v>98052</v>
+      </c>
+      <c r="AN12">
+        <v>92158</v>
+      </c>
+      <c r="AO12">
+        <v>3970</v>
+      </c>
+      <c r="AP12">
+        <v>3983</v>
+      </c>
+      <c r="AQ12">
+        <v>3956</v>
+      </c>
+      <c r="AR12">
+        <v>165812</v>
+      </c>
+      <c r="AS12">
+        <v>2021</v>
+      </c>
+      <c r="AT12">
+        <v>2062</v>
+      </c>
+      <c r="AU12">
+        <v>2028</v>
+      </c>
+      <c r="AV12">
+        <v>3987</v>
+      </c>
+      <c r="AW12">
+        <v>3996</v>
+      </c>
+      <c r="AX12">
+        <v>3972</v>
+      </c>
+      <c r="AY12">
+        <v>508024</v>
+      </c>
+      <c r="AZ12">
+        <v>132720</v>
+      </c>
+      <c r="BA12">
+        <v>146023</v>
+      </c>
+      <c r="BB12">
+        <v>132935</v>
+      </c>
+      <c r="BC12">
+        <v>4064</v>
+      </c>
+      <c r="BD12">
+        <v>4079</v>
+      </c>
+      <c r="BE12">
+        <v>4050</v>
+      </c>
+      <c r="BF12">
+        <v>2345160</v>
+      </c>
+      <c r="BG12">
+        <v>372877</v>
+      </c>
+      <c r="BH12">
+        <v>400128</v>
+      </c>
+      <c r="BI12">
+        <v>358625</v>
+      </c>
+      <c r="BJ12">
+        <v>4066</v>
+      </c>
+      <c r="BK12">
+        <v>4083</v>
+      </c>
+      <c r="BL12">
+        <v>4055</v>
+      </c>
+      <c r="BM12">
+        <v>63261</v>
+      </c>
+      <c r="BN12">
+        <v>0</v>
+      </c>
+      <c r="BO12">
+        <v>0</v>
+      </c>
+      <c r="BP12">
+        <v>0</v>
+      </c>
+      <c r="BQ12">
+        <v>4069</v>
+      </c>
+      <c r="BR12">
+        <v>4081</v>
+      </c>
+      <c r="BS12">
+        <v>4054</v>
+      </c>
+      <c r="BT12">
+        <v>211855</v>
+      </c>
+      <c r="BU12">
+        <v>0</v>
+      </c>
+      <c r="BV12">
+        <v>0</v>
+      </c>
+      <c r="BW12">
+        <v>0</v>
+      </c>
+      <c r="BX12">
+        <v>4070</v>
+      </c>
+      <c r="BY12">
+        <v>4085</v>
+      </c>
+      <c r="BZ12">
+        <v>4055</v>
+      </c>
+      <c r="CA12">
+        <v>500625</v>
+      </c>
+      <c r="CB12">
+        <v>98509</v>
+      </c>
+      <c r="CC12">
+        <v>95153</v>
+      </c>
+      <c r="CD12">
+        <v>98395</v>
+      </c>
+      <c r="CE12">
+        <v>4066</v>
+      </c>
+      <c r="CF12">
+        <v>4083</v>
+      </c>
+      <c r="CG12">
+        <v>4054</v>
+      </c>
+      <c r="CH12">
+        <v>133394</v>
+      </c>
+      <c r="CI12">
+        <v>52914</v>
+      </c>
+      <c r="CJ12">
+        <v>47244</v>
+      </c>
+      <c r="CK12">
+        <v>42130</v>
+      </c>
+      <c r="CL12">
+        <v>4051</v>
+      </c>
+      <c r="CM12">
+        <v>4069</v>
+      </c>
+      <c r="CN12">
+        <v>4035</v>
+      </c>
+      <c r="CO12">
+        <v>43423</v>
+      </c>
+      <c r="CP12">
+        <v>1812</v>
+      </c>
+      <c r="CQ12">
+        <v>1785</v>
+      </c>
+      <c r="CR12">
+        <v>0</v>
+      </c>
+      <c r="CS12">
+        <v>4045</v>
+      </c>
+      <c r="CT12">
+        <v>4068</v>
+      </c>
+      <c r="CU12">
+        <v>4036</v>
+      </c>
+    </row>
+    <row r="13" spans="1:256" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13">
+        <v>770639</v>
+      </c>
+      <c r="C13">
+        <v>191002</v>
+      </c>
+      <c r="D13">
+        <v>174996</v>
+      </c>
+      <c r="E13">
+        <v>196690</v>
+      </c>
+      <c r="F13">
+        <v>3849</v>
+      </c>
+      <c r="G13">
+        <v>3869</v>
+      </c>
+      <c r="H13">
+        <v>3835</v>
+      </c>
+      <c r="I13">
+        <v>333786</v>
+      </c>
+      <c r="J13">
+        <v>105992</v>
+      </c>
+      <c r="K13">
+        <v>105729</v>
+      </c>
+      <c r="L13">
+        <v>109856</v>
+      </c>
+      <c r="M13">
+        <v>3820</v>
+      </c>
+      <c r="N13">
+        <v>3858</v>
+      </c>
+      <c r="O13">
+        <v>3833</v>
+      </c>
+      <c r="P13">
+        <v>188747</v>
+      </c>
+      <c r="Q13">
+        <v>38959</v>
+      </c>
+      <c r="R13">
+        <v>41703</v>
+      </c>
+      <c r="S13">
+        <v>41688</v>
+      </c>
+      <c r="T13">
+        <v>3819</v>
+      </c>
+      <c r="U13">
+        <v>3857</v>
+      </c>
+      <c r="V13">
+        <v>3831</v>
+      </c>
+      <c r="W13">
+        <v>1636626</v>
+      </c>
+      <c r="X13">
+        <v>276123</v>
+      </c>
+      <c r="Y13">
+        <v>292433</v>
+      </c>
+      <c r="Z13">
+        <v>275639</v>
+      </c>
+      <c r="AA13">
+        <v>3981</v>
+      </c>
+      <c r="AB13">
+        <v>3992</v>
+      </c>
+      <c r="AC13">
+        <v>3966</v>
+      </c>
+      <c r="AD13">
+        <v>45694</v>
+      </c>
+      <c r="AE13">
+        <v>4206</v>
+      </c>
+      <c r="AF13">
+        <v>4176</v>
+      </c>
+      <c r="AG13">
+        <v>3584</v>
+      </c>
+      <c r="AH13">
+        <v>3979</v>
+      </c>
+      <c r="AI13">
+        <v>3988</v>
+      </c>
+      <c r="AJ13">
+        <v>3965</v>
+      </c>
+      <c r="AK13">
+        <v>383221</v>
+      </c>
+      <c r="AL13">
+        <v>87366</v>
+      </c>
+      <c r="AM13">
+        <v>93541</v>
+      </c>
+      <c r="AN13">
+        <v>87473</v>
+      </c>
+      <c r="AO13">
+        <v>3979</v>
+      </c>
+      <c r="AP13">
+        <v>3982</v>
+      </c>
+      <c r="AQ13">
+        <v>3958</v>
+      </c>
+      <c r="AR13">
+        <v>165812</v>
+      </c>
+      <c r="AS13">
+        <v>2041</v>
+      </c>
+      <c r="AT13">
+        <v>2068</v>
+      </c>
+      <c r="AU13">
+        <v>2037</v>
+      </c>
+      <c r="AV13">
+        <v>3979</v>
+      </c>
+      <c r="AW13">
+        <v>3989</v>
+      </c>
+      <c r="AX13">
+        <v>3964</v>
+      </c>
+      <c r="AY13">
+        <v>508026</v>
+      </c>
+      <c r="AZ13">
+        <v>132724</v>
+      </c>
+      <c r="BA13">
+        <v>146290</v>
+      </c>
+      <c r="BB13">
+        <v>132486</v>
+      </c>
+      <c r="BC13">
+        <v>4048</v>
+      </c>
+      <c r="BD13">
+        <v>4061</v>
+      </c>
+      <c r="BE13">
+        <v>4033</v>
+      </c>
+      <c r="BF13">
+        <v>2345165</v>
+      </c>
+      <c r="BG13">
+        <v>376219</v>
+      </c>
+      <c r="BH13">
+        <v>405758</v>
+      </c>
+      <c r="BI13">
+        <v>363936</v>
+      </c>
+      <c r="BJ13">
+        <v>4051</v>
+      </c>
+      <c r="BK13">
+        <v>4062</v>
+      </c>
+      <c r="BL13">
+        <v>4036</v>
+      </c>
+      <c r="BM13">
+        <v>63261</v>
+      </c>
+      <c r="BN13">
+        <v>0</v>
+      </c>
+      <c r="BO13">
+        <v>0</v>
+      </c>
+      <c r="BP13">
+        <v>0</v>
+      </c>
+      <c r="BQ13">
+        <v>4049</v>
+      </c>
+      <c r="BR13">
+        <v>4061</v>
+      </c>
+      <c r="BS13">
+        <v>4040</v>
+      </c>
+      <c r="BT13">
+        <v>211855</v>
+      </c>
+      <c r="BU13">
+        <v>0</v>
+      </c>
+      <c r="BV13">
+        <v>0</v>
+      </c>
+      <c r="BW13">
+        <v>0</v>
+      </c>
+      <c r="BX13">
+        <v>4057</v>
+      </c>
+      <c r="BY13">
+        <v>4069</v>
+      </c>
+      <c r="BZ13">
+        <v>4041</v>
+      </c>
+      <c r="CA13">
+        <v>500626</v>
+      </c>
+      <c r="CB13">
+        <v>101022</v>
+      </c>
+      <c r="CC13">
+        <v>94853</v>
+      </c>
+      <c r="CD13">
+        <v>98020</v>
+      </c>
+      <c r="CE13">
+        <v>4054</v>
+      </c>
+      <c r="CF13">
+        <v>4067</v>
+      </c>
+      <c r="CG13">
+        <v>4039</v>
+      </c>
+      <c r="CH13">
+        <v>133394</v>
+      </c>
+      <c r="CI13">
+        <v>53043</v>
+      </c>
+      <c r="CJ13">
+        <v>47055</v>
+      </c>
+      <c r="CK13">
+        <v>41974</v>
+      </c>
+      <c r="CL13">
+        <v>4042</v>
+      </c>
+      <c r="CM13">
+        <v>4057</v>
+      </c>
+      <c r="CN13">
+        <v>4026</v>
+      </c>
+      <c r="CO13">
+        <v>43423</v>
+      </c>
+      <c r="CP13">
+        <v>1804</v>
+      </c>
+      <c r="CQ13">
+        <v>1779</v>
+      </c>
+      <c r="CR13">
+        <v>0</v>
+      </c>
+      <c r="CS13">
+        <v>4038</v>
+      </c>
+      <c r="CT13">
+        <v>4058</v>
+      </c>
+      <c r="CU13">
+        <v>4027</v>
+      </c>
+    </row>
+    <row r="14" spans="1:256" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14">
+        <v>770641</v>
+      </c>
+      <c r="C14">
+        <v>190785</v>
+      </c>
+      <c r="D14">
+        <v>175557</v>
+      </c>
+      <c r="E14">
+        <v>192381</v>
+      </c>
+      <c r="F14">
+        <v>3850</v>
+      </c>
+      <c r="G14">
+        <v>3870</v>
+      </c>
+      <c r="H14">
+        <v>3836</v>
+      </c>
+      <c r="I14">
+        <v>333787</v>
+      </c>
+      <c r="J14">
+        <v>105767</v>
+      </c>
+      <c r="K14">
+        <v>105615</v>
+      </c>
+      <c r="L14">
+        <v>109793</v>
+      </c>
+      <c r="M14">
+        <v>3820</v>
+      </c>
+      <c r="N14">
+        <v>3860</v>
+      </c>
+      <c r="O14">
+        <v>3832</v>
+      </c>
+      <c r="P14">
+        <v>188747</v>
+      </c>
+      <c r="Q14">
+        <v>39034</v>
+      </c>
+      <c r="R14">
+        <v>41823</v>
+      </c>
+      <c r="S14">
+        <v>41843</v>
+      </c>
+      <c r="T14">
+        <v>3820</v>
+      </c>
+      <c r="U14">
+        <v>3856</v>
+      </c>
+      <c r="V14">
+        <v>3831</v>
+      </c>
+      <c r="W14">
+        <v>1636629</v>
+      </c>
+      <c r="X14">
+        <v>274257</v>
+      </c>
+      <c r="Y14">
+        <v>292113</v>
+      </c>
+      <c r="Z14">
+        <v>275533</v>
+      </c>
+      <c r="AA14">
+        <v>3979</v>
+      </c>
+      <c r="AB14">
+        <v>3992</v>
+      </c>
+      <c r="AC14">
+        <v>3965</v>
+      </c>
+      <c r="AD14">
+        <v>45694</v>
+      </c>
+      <c r="AE14">
+        <v>4154</v>
+      </c>
+      <c r="AF14">
+        <v>4185</v>
+      </c>
+      <c r="AG14">
+        <v>3565</v>
+      </c>
+      <c r="AH14">
+        <v>3982</v>
+      </c>
+      <c r="AI14">
+        <v>3992</v>
+      </c>
+      <c r="AJ14">
+        <v>3969</v>
+      </c>
+      <c r="AK14">
+        <v>383221</v>
+      </c>
+      <c r="AL14">
+        <v>87114</v>
+      </c>
+      <c r="AM14">
+        <v>93433</v>
+      </c>
+      <c r="AN14">
+        <v>87559</v>
+      </c>
+      <c r="AO14">
+        <v>3978</v>
+      </c>
+      <c r="AP14">
+        <v>3989</v>
+      </c>
+      <c r="AQ14">
+        <v>3965</v>
+      </c>
+      <c r="AR14">
+        <v>165813</v>
+      </c>
+      <c r="AS14">
+        <v>2020</v>
+      </c>
+      <c r="AT14">
+        <v>2045</v>
+      </c>
+      <c r="AU14">
+        <v>2023</v>
+      </c>
+      <c r="AV14">
+        <v>3981</v>
+      </c>
+      <c r="AW14">
+        <v>3993</v>
+      </c>
+      <c r="AX14">
+        <v>3968</v>
+      </c>
+      <c r="AY14">
+        <v>508027</v>
+      </c>
+      <c r="AZ14">
+        <v>131853</v>
+      </c>
+      <c r="BA14">
+        <v>145021</v>
+      </c>
+      <c r="BB14">
+        <v>131932</v>
+      </c>
+      <c r="BC14">
+        <v>4056</v>
+      </c>
+      <c r="BD14">
+        <v>4070</v>
+      </c>
+      <c r="BE14">
+        <v>4043</v>
+      </c>
+      <c r="BF14">
+        <v>2345169</v>
+      </c>
+      <c r="BG14">
+        <v>369795</v>
+      </c>
+      <c r="BH14">
+        <v>399565</v>
+      </c>
+      <c r="BI14">
+        <v>358022</v>
+      </c>
+      <c r="BJ14">
+        <v>4060</v>
+      </c>
+      <c r="BK14">
+        <v>4072</v>
+      </c>
+      <c r="BL14">
+        <v>4044</v>
+      </c>
+      <c r="BM14">
+        <v>63261</v>
+      </c>
+      <c r="BN14">
+        <v>0</v>
+      </c>
+      <c r="BO14">
+        <v>0</v>
+      </c>
+      <c r="BP14">
+        <v>0</v>
+      </c>
+      <c r="BQ14">
+        <v>4058</v>
+      </c>
+      <c r="BR14">
+        <v>4071</v>
+      </c>
+      <c r="BS14">
+        <v>4043</v>
+      </c>
+      <c r="BT14">
+        <v>211855</v>
+      </c>
+      <c r="BU14">
+        <v>0</v>
+      </c>
+      <c r="BV14">
+        <v>0</v>
+      </c>
+      <c r="BW14">
+        <v>0</v>
+      </c>
+      <c r="BX14">
+        <v>4060</v>
+      </c>
+      <c r="BY14">
+        <v>4073</v>
+      </c>
+      <c r="BZ14">
+        <v>4045</v>
+      </c>
+      <c r="CA14">
+        <v>500627</v>
+      </c>
+      <c r="CB14">
+        <v>95263</v>
+      </c>
+      <c r="CC14">
+        <v>94773</v>
+      </c>
+      <c r="CD14">
+        <v>97767</v>
+      </c>
+      <c r="CE14">
+        <v>4054</v>
+      </c>
+      <c r="CF14">
+        <v>4068</v>
+      </c>
+      <c r="CG14">
+        <v>4039</v>
+      </c>
+      <c r="CH14">
+        <v>133395</v>
+      </c>
+      <c r="CI14">
+        <v>52905</v>
+      </c>
+      <c r="CJ14">
+        <v>47019</v>
+      </c>
+      <c r="CK14">
+        <v>41844</v>
+      </c>
+      <c r="CL14">
+        <v>4044</v>
+      </c>
+      <c r="CM14">
+        <v>4059</v>
+      </c>
+      <c r="CN14">
+        <v>4028</v>
+      </c>
+      <c r="CO14">
+        <v>43423</v>
+      </c>
+      <c r="CP14">
+        <v>1803</v>
+      </c>
+      <c r="CQ14">
+        <v>1779</v>
+      </c>
+      <c r="CR14">
+        <v>0</v>
+      </c>
+      <c r="CS14">
+        <v>4048</v>
+      </c>
+      <c r="CT14">
+        <v>4070</v>
+      </c>
+      <c r="CU14">
+        <v>4038</v>
+      </c>
+    </row>
+    <row r="15" spans="1:256" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15">
+        <v>770643</v>
+      </c>
+      <c r="C15">
+        <v>188314</v>
+      </c>
+      <c r="D15">
+        <v>174789</v>
+      </c>
+      <c r="E15">
+        <v>191398</v>
+      </c>
+      <c r="F15">
+        <v>3860</v>
+      </c>
+      <c r="G15">
+        <v>3885</v>
+      </c>
+      <c r="H15">
+        <v>3850</v>
+      </c>
+      <c r="I15">
+        <v>333788</v>
+      </c>
+      <c r="J15">
+        <v>104378</v>
+      </c>
+      <c r="K15">
+        <v>104795</v>
+      </c>
+      <c r="L15">
+        <v>109130</v>
+      </c>
+      <c r="M15">
+        <v>3833</v>
+      </c>
+      <c r="N15">
+        <v>3875</v>
+      </c>
+      <c r="O15">
+        <v>3846</v>
+      </c>
+      <c r="P15">
+        <v>188748</v>
+      </c>
+      <c r="Q15">
+        <v>38824</v>
+      </c>
+      <c r="R15">
+        <v>41759</v>
+      </c>
+      <c r="S15">
+        <v>41834</v>
+      </c>
+      <c r="T15">
+        <v>3832</v>
+      </c>
+      <c r="U15">
+        <v>3869</v>
+      </c>
+      <c r="V15">
+        <v>3841</v>
+      </c>
+      <c r="W15">
+        <v>1636631</v>
+      </c>
+      <c r="X15">
+        <v>274268</v>
+      </c>
+      <c r="Y15">
+        <v>289088</v>
+      </c>
+      <c r="Z15">
+        <v>276337</v>
+      </c>
+      <c r="AA15">
+        <v>3988</v>
+      </c>
+      <c r="AB15">
+        <v>4004</v>
+      </c>
+      <c r="AC15">
+        <v>3974</v>
+      </c>
+      <c r="AD15">
+        <v>45694</v>
+      </c>
+      <c r="AE15">
+        <v>7607</v>
+      </c>
+      <c r="AF15">
+        <v>4196</v>
+      </c>
+      <c r="AG15">
+        <v>3658</v>
+      </c>
+      <c r="AH15">
+        <v>3986</v>
+      </c>
+      <c r="AI15">
+        <v>3999</v>
+      </c>
+      <c r="AJ15">
+        <v>3973</v>
+      </c>
+      <c r="AK15">
+        <v>383222</v>
+      </c>
+      <c r="AL15">
+        <v>86852</v>
+      </c>
+      <c r="AM15">
+        <v>92233</v>
+      </c>
+      <c r="AN15">
+        <v>87951</v>
+      </c>
+      <c r="AO15">
+        <v>3985</v>
+      </c>
+      <c r="AP15">
+        <v>3998</v>
+      </c>
+      <c r="AQ15">
+        <v>3970</v>
+      </c>
+      <c r="AR15">
+        <v>165813</v>
+      </c>
+      <c r="AS15">
+        <v>2044</v>
+      </c>
+      <c r="AT15">
+        <v>2093</v>
+      </c>
+      <c r="AU15">
+        <v>2063</v>
+      </c>
+      <c r="AV15">
+        <v>3990</v>
+      </c>
+      <c r="AW15">
+        <v>4003</v>
+      </c>
+      <c r="AX15">
+        <v>3978</v>
+      </c>
+      <c r="AY15">
+        <v>508028</v>
+      </c>
+      <c r="AZ15">
+        <v>128623</v>
+      </c>
+      <c r="BA15">
+        <v>142167</v>
+      </c>
+      <c r="BB15">
+        <v>129434</v>
+      </c>
+      <c r="BC15">
+        <v>4067</v>
+      </c>
+      <c r="BD15">
+        <v>4083</v>
+      </c>
+      <c r="BE15">
+        <v>4053</v>
+      </c>
+      <c r="BF15">
+        <v>2345173</v>
+      </c>
+      <c r="BG15">
+        <v>363199</v>
+      </c>
+      <c r="BH15">
+        <v>395421</v>
+      </c>
+      <c r="BI15">
+        <v>352843</v>
+      </c>
+      <c r="BJ15">
+        <v>4073</v>
+      </c>
+      <c r="BK15">
+        <v>4087</v>
+      </c>
+      <c r="BL15">
+        <v>4057</v>
+      </c>
+      <c r="BM15">
+        <v>63261</v>
+      </c>
+      <c r="BN15">
+        <v>0</v>
+      </c>
+      <c r="BO15">
+        <v>0</v>
+      </c>
+      <c r="BP15">
+        <v>0</v>
+      </c>
+      <c r="BQ15">
+        <v>4074</v>
+      </c>
+      <c r="BR15">
+        <v>4091</v>
+      </c>
+      <c r="BS15">
+        <v>4060</v>
+      </c>
+      <c r="BT15">
+        <v>211855</v>
+      </c>
+      <c r="BU15">
+        <v>0</v>
+      </c>
+      <c r="BV15">
+        <v>0</v>
+      </c>
+      <c r="BW15">
+        <v>0</v>
+      </c>
+      <c r="BX15">
+        <v>4076</v>
+      </c>
+      <c r="BY15">
+        <v>4094</v>
+      </c>
+      <c r="BZ15">
+        <v>4061</v>
+      </c>
+      <c r="CA15">
+        <v>500628</v>
+      </c>
+      <c r="CB15">
+        <v>94973</v>
+      </c>
+      <c r="CC15">
+        <v>95308</v>
+      </c>
+      <c r="CD15">
+        <v>97976</v>
+      </c>
+      <c r="CE15">
+        <v>4072</v>
+      </c>
+      <c r="CF15">
+        <v>4088</v>
+      </c>
+      <c r="CG15">
+        <v>4056</v>
+      </c>
+      <c r="CH15">
+        <v>133395</v>
+      </c>
+      <c r="CI15">
+        <v>52879</v>
+      </c>
+      <c r="CJ15">
+        <v>47353</v>
+      </c>
+      <c r="CK15">
+        <v>42035</v>
+      </c>
+      <c r="CL15">
+        <v>4060</v>
+      </c>
+      <c r="CM15">
+        <v>4078</v>
+      </c>
+      <c r="CN15">
+        <v>4042</v>
+      </c>
+      <c r="CO15">
+        <v>43423</v>
+      </c>
+      <c r="CP15">
+        <v>1816</v>
+      </c>
+      <c r="CQ15">
+        <v>1791</v>
+      </c>
+      <c r="CR15">
+        <v>0</v>
+      </c>
+      <c r="CS15">
+        <v>4053</v>
+      </c>
+      <c r="CT15">
+        <v>4078</v>
+      </c>
+      <c r="CU15">
+        <v>4044</v>
+      </c>
+    </row>
+    <row r="16" spans="1:256" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16">
+        <v>770645</v>
+      </c>
+      <c r="C16">
+        <v>192297</v>
+      </c>
+      <c r="D16">
+        <v>175794</v>
+      </c>
+      <c r="E16">
+        <v>199202</v>
+      </c>
+      <c r="F16">
+        <v>3839</v>
+      </c>
+      <c r="G16">
+        <v>3861</v>
+      </c>
+      <c r="H16">
+        <v>3824</v>
+      </c>
+      <c r="I16">
+        <v>333789</v>
+      </c>
+      <c r="J16">
+        <v>106626</v>
+      </c>
+      <c r="K16">
+        <v>106439</v>
+      </c>
+      <c r="L16">
+        <v>111314</v>
+      </c>
+      <c r="M16">
+        <v>3808</v>
+      </c>
+      <c r="N16">
+        <v>3850</v>
+      </c>
+      <c r="O16">
+        <v>3822</v>
+      </c>
+      <c r="P16">
+        <v>188748</v>
+      </c>
+      <c r="Q16">
+        <v>38809</v>
+      </c>
+      <c r="R16">
+        <v>41681</v>
+      </c>
+      <c r="S16">
+        <v>41950</v>
+      </c>
+      <c r="T16">
+        <v>3809</v>
+      </c>
+      <c r="U16">
+        <v>3847</v>
+      </c>
+      <c r="V16">
+        <v>3821</v>
+      </c>
+      <c r="W16">
+        <v>1636634</v>
+      </c>
+      <c r="X16">
+        <v>283885</v>
+      </c>
+      <c r="Y16">
+        <v>302859</v>
+      </c>
+      <c r="Z16">
+        <v>285651</v>
+      </c>
+      <c r="AA16">
+        <v>3966</v>
+      </c>
+      <c r="AB16">
+        <v>3979</v>
+      </c>
+      <c r="AC16">
+        <v>3953</v>
+      </c>
+      <c r="AD16">
+        <v>45694</v>
+      </c>
+      <c r="AE16">
+        <v>7591</v>
+      </c>
+      <c r="AF16">
+        <v>4157</v>
+      </c>
+      <c r="AG16">
+        <v>3538</v>
+      </c>
+      <c r="AH16">
+        <v>3967</v>
+      </c>
+      <c r="AI16">
+        <v>3976</v>
+      </c>
+      <c r="AJ16">
+        <v>3954</v>
+      </c>
+      <c r="AK16">
+        <v>383223</v>
+      </c>
+      <c r="AL16">
+        <v>95027</v>
+      </c>
+      <c r="AM16">
+        <v>99237</v>
+      </c>
+      <c r="AN16">
+        <v>95017</v>
+      </c>
+      <c r="AO16">
+        <v>3965</v>
+      </c>
+      <c r="AP16">
+        <v>3973</v>
+      </c>
+      <c r="AQ16">
+        <v>3950</v>
+      </c>
+      <c r="AR16">
+        <v>165813</v>
+      </c>
+      <c r="AS16">
+        <v>2024</v>
+      </c>
+      <c r="AT16">
+        <v>2039</v>
+      </c>
+      <c r="AU16">
+        <v>2026</v>
+      </c>
+      <c r="AV16">
+        <v>3959</v>
+      </c>
+      <c r="AW16">
+        <v>3972</v>
+      </c>
+      <c r="AX16">
+        <v>3946</v>
+      </c>
+      <c r="AY16">
+        <v>508030</v>
+      </c>
+      <c r="AZ16">
+        <v>128169</v>
+      </c>
+      <c r="BA16">
+        <v>137296</v>
+      </c>
+      <c r="BB16">
+        <v>128612</v>
+      </c>
+      <c r="BC16">
+        <v>4035</v>
+      </c>
+      <c r="BD16">
+        <v>4050</v>
+      </c>
+      <c r="BE16">
+        <v>4022</v>
+      </c>
+      <c r="BF16">
+        <v>2345177</v>
+      </c>
+      <c r="BG16">
+        <v>361229</v>
+      </c>
+      <c r="BH16">
+        <v>390298</v>
+      </c>
+      <c r="BI16">
+        <v>353010</v>
+      </c>
+      <c r="BJ16">
+        <v>4039</v>
+      </c>
+      <c r="BK16">
+        <v>4052</v>
+      </c>
+      <c r="BL16">
+        <v>4024</v>
+      </c>
+      <c r="BM16">
+        <v>63261</v>
+      </c>
+      <c r="BN16">
+        <v>0</v>
+      </c>
+      <c r="BO16">
+        <v>0</v>
+      </c>
+      <c r="BP16">
+        <v>0</v>
+      </c>
+      <c r="BQ16">
+        <v>4043</v>
+      </c>
+      <c r="BR16">
+        <v>4058</v>
+      </c>
+      <c r="BS16">
+        <v>4030</v>
+      </c>
+      <c r="BT16">
+        <v>211855</v>
+      </c>
+      <c r="BU16">
+        <v>0</v>
+      </c>
+      <c r="BV16">
+        <v>0</v>
+      </c>
+      <c r="BW16">
+        <v>0</v>
+      </c>
+      <c r="BX16">
+        <v>4046</v>
+      </c>
+      <c r="BY16">
+        <v>4061</v>
+      </c>
+      <c r="BZ16">
+        <v>4031</v>
+      </c>
+      <c r="CA16">
+        <v>500629</v>
+      </c>
+      <c r="CB16">
+        <v>91642</v>
+      </c>
+      <c r="CC16">
+        <v>94165</v>
+      </c>
+      <c r="CD16">
+        <v>97222</v>
+      </c>
+      <c r="CE16">
+        <v>4043</v>
+      </c>
+      <c r="CF16">
+        <v>4056</v>
+      </c>
+      <c r="CG16">
+        <v>4027</v>
+      </c>
+      <c r="CH16">
+        <v>133396</v>
+      </c>
+      <c r="CI16">
+        <v>52815</v>
+      </c>
+      <c r="CJ16">
+        <v>47080</v>
+      </c>
+      <c r="CK16">
+        <v>41901</v>
+      </c>
+      <c r="CL16">
+        <v>4035</v>
+      </c>
+      <c r="CM16">
+        <v>4050</v>
+      </c>
+      <c r="CN16">
+        <v>4018</v>
+      </c>
+      <c r="CO16">
+        <v>43423</v>
+      </c>
+      <c r="CP16">
+        <v>1803</v>
+      </c>
+      <c r="CQ16">
+        <v>1777</v>
+      </c>
+      <c r="CR16">
+        <v>0</v>
+      </c>
+      <c r="CS16">
+        <v>4032</v>
+      </c>
+      <c r="CT16">
+        <v>4053</v>
+      </c>
+      <c r="CU16">
+        <v>4021</v>
+      </c>
+    </row>
+    <row r="17" spans="1:99" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17">
+        <v>770647</v>
+      </c>
+      <c r="C17">
+        <v>203659</v>
+      </c>
+      <c r="D17">
+        <v>190428</v>
+      </c>
+      <c r="E17">
+        <v>214128</v>
+      </c>
+      <c r="F17">
+        <v>3852</v>
+      </c>
+      <c r="G17">
+        <v>3875</v>
+      </c>
+      <c r="H17">
+        <v>3837</v>
+      </c>
+      <c r="I17">
+        <v>333790</v>
+      </c>
+      <c r="J17">
+        <v>122586</v>
+      </c>
+      <c r="K17">
+        <v>122848</v>
+      </c>
+      <c r="L17">
+        <v>128098</v>
+      </c>
+      <c r="M17">
+        <v>3820</v>
+      </c>
+      <c r="N17">
+        <v>3863</v>
+      </c>
+      <c r="O17">
+        <v>3833</v>
+      </c>
+      <c r="P17">
+        <v>188748</v>
+      </c>
+      <c r="Q17">
+        <v>38923</v>
+      </c>
+      <c r="R17">
+        <v>41794</v>
+      </c>
+      <c r="S17">
+        <v>42059</v>
+      </c>
+      <c r="T17">
+        <v>3818</v>
+      </c>
+      <c r="U17">
+        <v>3861</v>
+      </c>
+      <c r="V17">
+        <v>3833</v>
+      </c>
+      <c r="W17">
+        <v>1636637</v>
+      </c>
+      <c r="X17">
+        <v>278627</v>
+      </c>
+      <c r="Y17">
+        <v>299379</v>
+      </c>
+      <c r="Z17">
+        <v>280346</v>
+      </c>
+      <c r="AA17">
+        <v>3987</v>
+      </c>
+      <c r="AB17">
+        <v>4002</v>
+      </c>
+      <c r="AC17">
+        <v>3974</v>
+      </c>
+      <c r="AD17">
+        <v>45694</v>
+      </c>
+      <c r="AE17">
+        <v>7613</v>
+      </c>
+      <c r="AF17">
+        <v>4184</v>
+      </c>
+      <c r="AG17">
+        <v>3648</v>
+      </c>
+      <c r="AH17">
+        <v>3987</v>
+      </c>
+      <c r="AI17">
+        <v>3999</v>
+      </c>
+      <c r="AJ17">
+        <v>3974</v>
+      </c>
+      <c r="AK17">
+        <v>383224</v>
+      </c>
+      <c r="AL17">
+        <v>89561</v>
+      </c>
+      <c r="AM17">
+        <v>94505</v>
+      </c>
+      <c r="AN17">
+        <v>90041</v>
+      </c>
+      <c r="AO17">
+        <v>3983</v>
+      </c>
+      <c r="AP17">
+        <v>3996</v>
+      </c>
+      <c r="AQ17">
+        <v>3969</v>
+      </c>
+      <c r="AR17">
+        <v>165813</v>
+      </c>
+      <c r="AS17">
+        <v>2028</v>
+      </c>
+      <c r="AT17">
+        <v>2068</v>
+      </c>
+      <c r="AU17">
+        <v>2039</v>
+      </c>
+      <c r="AV17">
+        <v>3988</v>
+      </c>
+      <c r="AW17">
+        <v>3999</v>
+      </c>
+      <c r="AX17">
+        <v>3972</v>
+      </c>
+      <c r="AY17">
+        <v>508031</v>
+      </c>
+      <c r="AZ17">
+        <v>133662</v>
+      </c>
+      <c r="BA17">
+        <v>143868</v>
+      </c>
+      <c r="BB17">
+        <v>134554</v>
+      </c>
+      <c r="BC17">
+        <v>4062</v>
+      </c>
+      <c r="BD17">
+        <v>4079</v>
+      </c>
+      <c r="BE17">
+        <v>4048</v>
+      </c>
+      <c r="BF17">
+        <v>2345182</v>
+      </c>
+      <c r="BG17">
+        <v>357861</v>
+      </c>
+      <c r="BH17">
+        <v>394738</v>
+      </c>
+      <c r="BI17">
+        <v>357264</v>
+      </c>
+      <c r="BJ17">
+        <v>4066</v>
+      </c>
+      <c r="BK17">
+        <v>4081</v>
+      </c>
+      <c r="BL17">
+        <v>4049</v>
+      </c>
+      <c r="BM17">
+        <v>63261</v>
+      </c>
+      <c r="BN17">
+        <v>0</v>
+      </c>
+      <c r="BO17">
+        <v>0</v>
+      </c>
+      <c r="BP17">
+        <v>0</v>
+      </c>
+      <c r="BQ17">
+        <v>4064</v>
+      </c>
+      <c r="BR17">
+        <v>4079</v>
+      </c>
+      <c r="BS17">
+        <v>4053</v>
+      </c>
+      <c r="BT17">
+        <v>211855</v>
+      </c>
+      <c r="BU17">
+        <v>0</v>
+      </c>
+      <c r="BV17">
+        <v>0</v>
+      </c>
+      <c r="BW17">
+        <v>0</v>
+      </c>
+      <c r="BX17">
+        <v>4072</v>
+      </c>
+      <c r="BY17">
+        <v>4085</v>
+      </c>
+      <c r="BZ17">
+        <v>4052</v>
+      </c>
+      <c r="CA17">
+        <v>500630</v>
+      </c>
+      <c r="CB17">
+        <v>92652</v>
+      </c>
+      <c r="CC17">
+        <v>95441</v>
+      </c>
+      <c r="CD17">
+        <v>98021</v>
+      </c>
+      <c r="CE17">
+        <v>4066</v>
+      </c>
+      <c r="CF17">
+        <v>4081</v>
+      </c>
+      <c r="CG17">
+        <v>4049</v>
+      </c>
+      <c r="CH17">
+        <v>133396</v>
+      </c>
+      <c r="CI17">
+        <v>53050</v>
+      </c>
+      <c r="CJ17">
+        <v>47435</v>
+      </c>
+      <c r="CK17">
+        <v>41997</v>
+      </c>
+      <c r="CL17">
+        <v>4055</v>
+      </c>
+      <c r="CM17">
+        <v>4073</v>
+      </c>
+      <c r="CN17">
+        <v>4037</v>
+      </c>
+      <c r="CO17">
+        <v>43423</v>
+      </c>
+      <c r="CP17">
+        <v>1814</v>
+      </c>
+      <c r="CQ17">
+        <v>1786</v>
+      </c>
+      <c r="CR17">
+        <v>0</v>
+      </c>
+      <c r="CS17">
+        <v>4052</v>
+      </c>
+      <c r="CT17">
+        <v>4074</v>
+      </c>
+      <c r="CU17">
+        <v>4040</v>
+      </c>
+    </row>
+    <row r="18" spans="1:99" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18">
+        <v>770650</v>
+      </c>
+      <c r="C18">
+        <v>206297</v>
+      </c>
+      <c r="D18">
+        <v>190451</v>
+      </c>
+      <c r="E18">
+        <v>213916</v>
+      </c>
+      <c r="F18">
+        <v>3854</v>
+      </c>
+      <c r="G18">
+        <v>3876</v>
+      </c>
+      <c r="H18">
+        <v>3839</v>
+      </c>
+      <c r="I18">
+        <v>333791</v>
+      </c>
+      <c r="J18">
+        <v>122440</v>
+      </c>
+      <c r="K18">
+        <v>122717</v>
+      </c>
+      <c r="L18">
+        <v>127337</v>
+      </c>
+      <c r="M18">
+        <v>3822</v>
+      </c>
+      <c r="N18">
+        <v>3861</v>
+      </c>
+      <c r="O18">
+        <v>3836</v>
+      </c>
+      <c r="P18">
+        <v>188749</v>
+      </c>
+      <c r="Q18">
+        <v>38914</v>
+      </c>
+      <c r="R18">
+        <v>41704</v>
+      </c>
+      <c r="S18">
+        <v>41892</v>
+      </c>
+      <c r="T18">
+        <v>3820</v>
+      </c>
+      <c r="U18">
+        <v>3860</v>
+      </c>
+      <c r="V18">
+        <v>3835</v>
+      </c>
+      <c r="W18">
+        <v>1636640</v>
+      </c>
+      <c r="X18">
+        <v>281120</v>
+      </c>
+      <c r="Y18">
+        <v>303660</v>
+      </c>
+      <c r="Z18">
+        <v>279869</v>
+      </c>
+      <c r="AA18">
+        <v>3988</v>
+      </c>
+      <c r="AB18">
+        <v>4000</v>
+      </c>
+      <c r="AC18">
+        <v>3975</v>
+      </c>
+      <c r="AD18">
+        <v>45694</v>
+      </c>
+      <c r="AE18">
+        <v>4168</v>
+      </c>
+      <c r="AF18">
+        <v>4182</v>
+      </c>
+      <c r="AG18">
+        <v>3548</v>
+      </c>
+      <c r="AH18">
+        <v>3988</v>
+      </c>
+      <c r="AI18">
+        <v>3997</v>
+      </c>
+      <c r="AJ18">
+        <v>3976</v>
+      </c>
+      <c r="AK18">
+        <v>383225</v>
+      </c>
+      <c r="AL18">
+        <v>89808</v>
+      </c>
+      <c r="AM18">
+        <v>94238</v>
+      </c>
+      <c r="AN18">
+        <v>89594</v>
+      </c>
+      <c r="AO18">
+        <v>3987</v>
+      </c>
+      <c r="AP18">
+        <v>3996</v>
+      </c>
+      <c r="AQ18">
+        <v>3974</v>
+      </c>
+      <c r="AR18">
+        <v>165813</v>
+      </c>
+      <c r="AS18">
+        <v>2063</v>
+      </c>
+      <c r="AT18">
+        <v>2086</v>
+      </c>
+      <c r="AU18">
+        <v>2037</v>
+      </c>
+      <c r="AV18">
+        <v>3989</v>
+      </c>
+      <c r="AW18">
+        <v>3999</v>
+      </c>
+      <c r="AX18">
+        <v>3976</v>
+      </c>
+      <c r="AY18">
+        <v>508032</v>
+      </c>
+      <c r="AZ18">
+        <v>134820</v>
+      </c>
+      <c r="BA18">
+        <v>142992</v>
+      </c>
+      <c r="BB18">
+        <v>133995</v>
+      </c>
+      <c r="BC18">
+        <v>4065</v>
+      </c>
+      <c r="BD18">
+        <v>4080</v>
+      </c>
+      <c r="BE18">
+        <v>4051</v>
+      </c>
+      <c r="BF18">
+        <v>2345186</v>
+      </c>
+      <c r="BG18">
+        <v>368185</v>
+      </c>
+      <c r="BH18">
+        <v>393956</v>
+      </c>
+      <c r="BI18">
+        <v>361664</v>
+      </c>
+      <c r="BJ18">
+        <v>4069</v>
+      </c>
+      <c r="BK18">
+        <v>4082</v>
+      </c>
+      <c r="BL18">
+        <v>4052</v>
+      </c>
+      <c r="BM18">
+        <v>63261</v>
+      </c>
+      <c r="BN18">
+        <v>0</v>
+      </c>
+      <c r="BO18">
+        <v>0</v>
+      </c>
+      <c r="BP18">
+        <v>0</v>
+      </c>
+      <c r="BQ18">
+        <v>4069</v>
+      </c>
+      <c r="BR18">
+        <v>4086</v>
+      </c>
+      <c r="BS18">
+        <v>4056</v>
+      </c>
+      <c r="BT18">
+        <v>211855</v>
+      </c>
+      <c r="BU18">
+        <v>0</v>
+      </c>
+      <c r="BV18">
+        <v>0</v>
+      </c>
+      <c r="BW18">
+        <v>0</v>
+      </c>
+      <c r="BX18">
+        <v>4072</v>
+      </c>
+      <c r="BY18">
+        <v>4088</v>
+      </c>
+      <c r="BZ18">
+        <v>4058</v>
+      </c>
+      <c r="CA18">
+        <v>500631</v>
+      </c>
+      <c r="CB18">
+        <v>92424</v>
+      </c>
+      <c r="CC18">
+        <v>95088</v>
+      </c>
+      <c r="CD18">
+        <v>98128</v>
+      </c>
+      <c r="CE18">
+        <v>4067</v>
+      </c>
+      <c r="CF18">
+        <v>4083</v>
+      </c>
+      <c r="CG18">
+        <v>4054</v>
+      </c>
+      <c r="CH18">
+        <v>133396</v>
+      </c>
+      <c r="CI18">
+        <v>52973</v>
+      </c>
+      <c r="CJ18">
+        <v>47253</v>
+      </c>
+      <c r="CK18">
+        <v>42177</v>
+      </c>
+      <c r="CL18">
+        <v>4054</v>
+      </c>
+      <c r="CM18">
+        <v>4073</v>
+      </c>
+      <c r="CN18">
+        <v>4036</v>
+      </c>
+      <c r="CO18">
+        <v>43423</v>
+      </c>
+      <c r="CP18">
+        <v>1809</v>
+      </c>
+      <c r="CQ18">
+        <v>1788</v>
+      </c>
+      <c r="CR18">
+        <v>0</v>
+      </c>
+      <c r="CS18">
+        <v>4052</v>
+      </c>
+      <c r="CT18">
+        <v>4075</v>
+      </c>
+      <c r="CU18">
+        <v>4043</v>
+      </c>
+    </row>
+    <row r="19" spans="1:99" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19">
+        <v>770652</v>
+      </c>
+      <c r="C19">
+        <v>212354</v>
+      </c>
+      <c r="D19">
+        <v>192997</v>
+      </c>
+      <c r="E19">
+        <v>210185</v>
+      </c>
+      <c r="F19">
+        <v>3873</v>
+      </c>
+      <c r="G19">
+        <v>3895</v>
+      </c>
+      <c r="H19">
+        <v>3860</v>
+      </c>
+      <c r="I19">
+        <v>333792</v>
+      </c>
+      <c r="J19">
+        <v>123358</v>
+      </c>
+      <c r="K19">
+        <v>123424</v>
+      </c>
+      <c r="L19">
+        <v>127690</v>
+      </c>
+      <c r="M19">
+        <v>3842</v>
+      </c>
+      <c r="N19">
+        <v>3880</v>
+      </c>
+      <c r="O19">
+        <v>3854</v>
+      </c>
+      <c r="P19">
+        <v>188749</v>
+      </c>
+      <c r="Q19">
+        <v>39015</v>
+      </c>
+      <c r="R19">
+        <v>41856</v>
+      </c>
+      <c r="S19">
+        <v>44806</v>
+      </c>
+      <c r="T19">
+        <v>3853</v>
+      </c>
+      <c r="U19">
+        <v>3890</v>
+      </c>
+      <c r="V19">
+        <v>3863</v>
+      </c>
+      <c r="W19">
+        <v>1636643</v>
+      </c>
+      <c r="X19">
+        <v>247273</v>
+      </c>
+      <c r="Y19">
+        <v>269471</v>
+      </c>
+      <c r="Z19">
+        <v>248566</v>
+      </c>
+      <c r="AA19">
+        <v>4025</v>
+      </c>
+      <c r="AB19">
+        <v>4037</v>
+      </c>
+      <c r="AC19">
+        <v>4012</v>
+      </c>
+      <c r="AD19">
+        <v>45694</v>
+      </c>
+      <c r="AE19">
+        <v>4135</v>
+      </c>
+      <c r="AF19">
+        <v>4223</v>
+      </c>
+      <c r="AG19">
+        <v>3523</v>
+      </c>
+      <c r="AH19">
+        <v>4026</v>
+      </c>
+      <c r="AI19">
+        <v>4034</v>
+      </c>
+      <c r="AJ19">
+        <v>4012</v>
+      </c>
+      <c r="AK19">
+        <v>383225</v>
+      </c>
+      <c r="AL19">
+        <v>88062</v>
+      </c>
+      <c r="AM19">
+        <v>92225</v>
+      </c>
+      <c r="AN19">
+        <v>87913</v>
+      </c>
+      <c r="AO19">
+        <v>4023</v>
+      </c>
+      <c r="AP19">
+        <v>4034</v>
+      </c>
+      <c r="AQ19">
+        <v>4007</v>
+      </c>
+      <c r="AR19">
+        <v>165813</v>
+      </c>
+      <c r="AS19">
+        <v>2084</v>
+      </c>
+      <c r="AT19">
+        <v>2105</v>
+      </c>
+      <c r="AU19">
+        <v>2073</v>
+      </c>
+      <c r="AV19">
+        <v>4021</v>
+      </c>
+      <c r="AW19">
+        <v>4031</v>
+      </c>
+      <c r="AX19">
+        <v>4008</v>
+      </c>
+      <c r="AY19">
+        <v>508034</v>
+      </c>
+      <c r="AZ19">
+        <v>134341</v>
+      </c>
+      <c r="BA19">
+        <v>142415</v>
+      </c>
+      <c r="BB19">
+        <v>134009</v>
+      </c>
+      <c r="BC19">
+        <v>4093</v>
+      </c>
+      <c r="BD19">
+        <v>4106</v>
+      </c>
+      <c r="BE19">
+        <v>4078</v>
+      </c>
+      <c r="BF19">
+        <v>2345190</v>
+      </c>
+      <c r="BG19">
+        <v>362501</v>
+      </c>
+      <c r="BH19">
+        <v>389738</v>
+      </c>
+      <c r="BI19">
+        <v>360212</v>
+      </c>
+      <c r="BJ19">
+        <v>4095</v>
+      </c>
+      <c r="BK19">
+        <v>4107</v>
+      </c>
+      <c r="BL19">
+        <v>4079</v>
+      </c>
+      <c r="BM19">
+        <v>63261</v>
+      </c>
+      <c r="BN19">
+        <v>0</v>
+      </c>
+      <c r="BO19">
+        <v>0</v>
+      </c>
+      <c r="BP19">
+        <v>0</v>
+      </c>
+      <c r="BQ19">
+        <v>4091</v>
+      </c>
+      <c r="BR19">
+        <v>4104</v>
+      </c>
+      <c r="BS19">
+        <v>4076</v>
+      </c>
+      <c r="BT19">
+        <v>211855</v>
+      </c>
+      <c r="BU19">
+        <v>0</v>
+      </c>
+      <c r="BV19">
+        <v>0</v>
+      </c>
+      <c r="BW19">
+        <v>0</v>
+      </c>
+      <c r="BX19">
+        <v>4089</v>
+      </c>
+      <c r="BY19">
+        <v>4103</v>
+      </c>
+      <c r="BZ19">
+        <v>4074</v>
+      </c>
+      <c r="CA19">
+        <v>500632</v>
+      </c>
+      <c r="CB19">
+        <v>92420</v>
+      </c>
+      <c r="CC19">
+        <v>94706</v>
+      </c>
+      <c r="CD19">
+        <v>97743</v>
+      </c>
+      <c r="CE19">
+        <v>4086</v>
+      </c>
+      <c r="CF19">
+        <v>4099</v>
+      </c>
+      <c r="CG19">
+        <v>4070</v>
+      </c>
+      <c r="CH19">
+        <v>133397</v>
+      </c>
+      <c r="CI19">
+        <v>53226</v>
+      </c>
+      <c r="CJ19">
+        <v>47431</v>
+      </c>
+      <c r="CK19">
+        <v>42278</v>
+      </c>
+      <c r="CL19">
+        <v>4076</v>
+      </c>
+      <c r="CM19">
+        <v>4092</v>
+      </c>
+      <c r="CN19">
+        <v>4059</v>
+      </c>
+      <c r="CO19">
+        <v>43423</v>
+      </c>
+      <c r="CP19">
+        <v>1819</v>
+      </c>
+      <c r="CQ19">
+        <v>1794</v>
+      </c>
+      <c r="CR19">
+        <v>0</v>
+      </c>
+      <c r="CS19">
+        <v>4068</v>
+      </c>
+      <c r="CT19">
+        <v>4090</v>
+      </c>
+      <c r="CU19">
+        <v>4057</v>
+      </c>
+    </row>
+    <row r="20" spans="1:99" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>44651.518750000003</v>
+      </c>
+      <c r="B20">
+        <v>770657</v>
+      </c>
+      <c r="C20">
+        <v>211800</v>
+      </c>
+      <c r="D20">
+        <v>193527</v>
+      </c>
+      <c r="E20">
+        <v>214832</v>
+      </c>
+      <c r="F20">
+        <v>3842</v>
+      </c>
+      <c r="G20">
+        <v>3862</v>
+      </c>
+      <c r="H20">
+        <v>3827</v>
+      </c>
+      <c r="I20">
+        <v>333795</v>
+      </c>
+      <c r="J20">
+        <v>123361</v>
+      </c>
+      <c r="K20">
+        <v>122970</v>
+      </c>
+      <c r="L20">
+        <v>127396</v>
+      </c>
+      <c r="M20">
+        <v>3807</v>
+      </c>
+      <c r="N20">
+        <v>3849</v>
+      </c>
+      <c r="O20">
+        <v>3823</v>
+      </c>
+      <c r="P20">
+        <v>188750</v>
+      </c>
+      <c r="Q20">
+        <v>39137</v>
+      </c>
+      <c r="R20">
+        <v>41769</v>
+      </c>
+      <c r="S20">
+        <v>44886</v>
+      </c>
+      <c r="T20">
+        <v>3807</v>
+      </c>
+      <c r="U20">
+        <v>3843</v>
+      </c>
+      <c r="V20">
+        <v>3821</v>
+      </c>
+      <c r="W20">
+        <v>1636649</v>
+      </c>
+      <c r="X20">
+        <v>275173</v>
+      </c>
+      <c r="Y20">
+        <v>289637</v>
+      </c>
+      <c r="Z20">
+        <v>274934</v>
+      </c>
+      <c r="AA20">
+        <v>3978</v>
+      </c>
+      <c r="AB20">
+        <v>3988</v>
+      </c>
+      <c r="AC20">
+        <v>3962</v>
+      </c>
+      <c r="AD20">
+        <v>45694</v>
+      </c>
+      <c r="AE20">
+        <v>4114</v>
+      </c>
+      <c r="AF20">
+        <v>4179</v>
+      </c>
+      <c r="AG20">
+        <v>3497</v>
+      </c>
+      <c r="AH20">
+        <v>3990</v>
+      </c>
+      <c r="AI20">
+        <v>3996</v>
+      </c>
+      <c r="AJ20">
+        <v>3975</v>
+      </c>
+      <c r="AK20">
+        <v>383227</v>
+      </c>
+      <c r="AL20">
+        <v>88446</v>
+      </c>
+      <c r="AM20">
+        <v>92608</v>
+      </c>
+      <c r="AN20">
+        <v>88268</v>
+      </c>
+      <c r="AO20">
+        <v>3985</v>
+      </c>
+      <c r="AP20">
+        <v>3996</v>
+      </c>
+      <c r="AQ20">
+        <v>3971</v>
+      </c>
+      <c r="AR20">
+        <v>165813</v>
+      </c>
+      <c r="AS20">
+        <v>2061</v>
+      </c>
+      <c r="AT20">
+        <v>2074</v>
+      </c>
+      <c r="AU20">
+        <v>2030</v>
+      </c>
+      <c r="AV20">
+        <v>3991</v>
+      </c>
+      <c r="AW20">
+        <v>4000</v>
+      </c>
+      <c r="AX20">
+        <v>3972</v>
+      </c>
+      <c r="AY20">
+        <v>508037</v>
+      </c>
+      <c r="AZ20">
+        <v>141961</v>
+      </c>
+      <c r="BA20">
+        <v>155231</v>
+      </c>
+      <c r="BB20">
+        <v>141617</v>
+      </c>
+      <c r="BC20">
+        <v>4062</v>
+      </c>
+      <c r="BD20">
+        <v>4076</v>
+      </c>
+      <c r="BE20">
+        <v>4046</v>
+      </c>
+      <c r="BF20">
+        <v>2345199</v>
+      </c>
+      <c r="BG20">
+        <v>371311</v>
+      </c>
+      <c r="BH20">
+        <v>407859</v>
+      </c>
+      <c r="BI20">
+        <v>371057</v>
+      </c>
+      <c r="BJ20">
+        <v>4067</v>
+      </c>
+      <c r="BK20">
+        <v>4079</v>
+      </c>
+      <c r="BL20">
+        <v>4051</v>
+      </c>
+      <c r="BM20">
+        <v>63261</v>
+      </c>
+      <c r="BN20">
+        <v>0</v>
+      </c>
+      <c r="BO20">
+        <v>0</v>
+      </c>
+      <c r="BP20">
+        <v>0</v>
+      </c>
+      <c r="BQ20">
+        <v>4069</v>
+      </c>
+      <c r="BR20">
+        <v>4083</v>
+      </c>
+      <c r="BS20">
+        <v>4054</v>
+      </c>
+      <c r="BT20">
+        <v>211855</v>
+      </c>
+      <c r="BU20">
+        <v>0</v>
+      </c>
+      <c r="BV20">
+        <v>0</v>
+      </c>
+      <c r="BW20">
+        <v>0</v>
+      </c>
+      <c r="BX20">
+        <v>4071</v>
+      </c>
+      <c r="BY20">
+        <v>4085</v>
+      </c>
+      <c r="BZ20">
+        <v>4056</v>
+      </c>
+      <c r="CA20">
+        <v>500633</v>
+      </c>
+      <c r="CB20">
+        <v>95429</v>
+      </c>
+      <c r="CC20">
+        <v>94873</v>
+      </c>
+      <c r="CD20">
+        <v>97054</v>
+      </c>
+      <c r="CE20">
+        <v>4064</v>
+      </c>
+      <c r="CF20">
+        <v>4078</v>
+      </c>
+      <c r="CG20">
+        <v>4049</v>
+      </c>
+      <c r="CH20">
+        <v>133398</v>
+      </c>
+      <c r="CI20">
+        <v>52831</v>
+      </c>
+      <c r="CJ20">
+        <v>47000</v>
+      </c>
+      <c r="CK20">
+        <v>41813</v>
+      </c>
+      <c r="CL20">
+        <v>4055</v>
+      </c>
+      <c r="CM20">
+        <v>4071</v>
+      </c>
+      <c r="CN20">
+        <v>4038</v>
+      </c>
+      <c r="CO20">
+        <v>43423</v>
+      </c>
+      <c r="CP20">
+        <v>1813</v>
+      </c>
+      <c r="CQ20">
+        <v>1788</v>
+      </c>
+      <c r="CR20">
+        <v>0</v>
+      </c>
+      <c r="CS20">
+        <v>4050</v>
+      </c>
+      <c r="CT20">
+        <v>4071</v>
+      </c>
+      <c r="CU20">
+        <v>4038</v>
+      </c>
+    </row>
+    <row r="21" spans="1:99" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>44651.519444444442</v>
+      </c>
+      <c r="B21">
+        <v>770659</v>
+      </c>
+      <c r="C21">
+        <v>211212</v>
+      </c>
+      <c r="D21">
+        <v>192591</v>
+      </c>
+      <c r="E21">
+        <v>213554</v>
+      </c>
+      <c r="F21">
+        <v>3811</v>
+      </c>
+      <c r="G21">
+        <v>3833</v>
+      </c>
+      <c r="H21">
+        <v>3797</v>
+      </c>
+      <c r="I21">
+        <v>333796</v>
+      </c>
+      <c r="J21">
+        <v>124179</v>
+      </c>
+      <c r="K21">
+        <v>124121</v>
+      </c>
+      <c r="L21">
+        <v>128688</v>
+      </c>
+      <c r="M21">
+        <v>3779</v>
+      </c>
+      <c r="N21">
+        <v>3820</v>
+      </c>
+      <c r="O21">
+        <v>3792</v>
+      </c>
+      <c r="P21">
+        <v>188750</v>
+      </c>
+      <c r="Q21">
+        <v>38831</v>
+      </c>
+      <c r="R21">
+        <v>41641</v>
+      </c>
+      <c r="S21">
+        <v>44765</v>
+      </c>
+      <c r="T21">
+        <v>3779</v>
+      </c>
+      <c r="U21">
+        <v>3820</v>
+      </c>
+      <c r="V21">
+        <v>3794</v>
+      </c>
+      <c r="W21">
+        <v>1636652</v>
+      </c>
+      <c r="X21">
+        <v>279899</v>
+      </c>
+      <c r="Y21">
+        <v>296031</v>
+      </c>
+      <c r="Z21">
+        <v>284439</v>
+      </c>
+      <c r="AA21">
+        <v>3947</v>
+      </c>
+      <c r="AB21">
+        <v>3962</v>
+      </c>
+      <c r="AC21">
+        <v>3934</v>
+      </c>
+      <c r="AD21">
+        <v>45694</v>
+      </c>
+      <c r="AE21">
+        <v>4217</v>
+      </c>
+      <c r="AF21">
+        <v>4155</v>
+      </c>
+      <c r="AG21">
+        <v>3657</v>
+      </c>
+      <c r="AH21">
+        <v>3946</v>
+      </c>
+      <c r="AI21">
+        <v>3958</v>
+      </c>
+      <c r="AJ21">
+        <v>3932</v>
+      </c>
+      <c r="AK21">
+        <v>383228</v>
+      </c>
+      <c r="AL21">
+        <v>93883</v>
+      </c>
+      <c r="AM21">
+        <v>98817</v>
+      </c>
+      <c r="AN21">
+        <v>94880</v>
+      </c>
+      <c r="AO21">
+        <v>3947</v>
+      </c>
+      <c r="AP21">
+        <v>3960</v>
+      </c>
+      <c r="AQ21">
+        <v>3933</v>
+      </c>
+      <c r="AR21">
+        <v>165813</v>
+      </c>
+      <c r="AS21">
+        <v>2003</v>
+      </c>
+      <c r="AT21">
+        <v>2049</v>
+      </c>
+      <c r="AU21">
+        <v>2014</v>
+      </c>
+      <c r="AV21">
+        <v>3957</v>
+      </c>
+      <c r="AW21">
+        <v>3970</v>
+      </c>
+      <c r="AX21">
+        <v>3942</v>
+      </c>
+      <c r="AY21">
+        <v>508038</v>
+      </c>
+      <c r="AZ21">
+        <v>143418</v>
+      </c>
+      <c r="BA21">
+        <v>157086</v>
+      </c>
+      <c r="BB21">
+        <v>144602</v>
+      </c>
+      <c r="BC21">
+        <v>4029</v>
+      </c>
+      <c r="BD21">
+        <v>4047</v>
+      </c>
+      <c r="BE21">
+        <v>4014</v>
+      </c>
+      <c r="BF21">
+        <v>2345203</v>
+      </c>
+      <c r="BG21">
+        <v>385630</v>
+      </c>
+      <c r="BH21">
+        <v>416445</v>
+      </c>
+      <c r="BI21">
+        <v>375763</v>
+      </c>
+      <c r="BJ21">
+        <v>4028</v>
+      </c>
+      <c r="BK21">
+        <v>4041</v>
+      </c>
+      <c r="BL21">
+        <v>4011</v>
+      </c>
+      <c r="BM21">
+        <v>63261</v>
+      </c>
+      <c r="BN21">
+        <v>0</v>
+      </c>
+      <c r="BO21">
+        <v>0</v>
+      </c>
+      <c r="BP21">
+        <v>0</v>
+      </c>
+      <c r="BQ21">
+        <v>4026</v>
+      </c>
+      <c r="BR21">
+        <v>4041</v>
+      </c>
+      <c r="BS21">
+        <v>4012</v>
+      </c>
+      <c r="BT21">
+        <v>211855</v>
+      </c>
+      <c r="BU21">
+        <v>0</v>
+      </c>
+      <c r="BV21">
+        <v>0</v>
+      </c>
+      <c r="BW21">
+        <v>0</v>
+      </c>
+      <c r="BX21">
+        <v>4029</v>
+      </c>
+      <c r="BY21">
+        <v>4044</v>
+      </c>
+      <c r="BZ21">
+        <v>4016</v>
+      </c>
+      <c r="CA21">
+        <v>500634</v>
+      </c>
+      <c r="CB21">
+        <v>95286</v>
+      </c>
+      <c r="CC21">
+        <v>95131</v>
+      </c>
+      <c r="CD21">
+        <v>97384</v>
+      </c>
+      <c r="CE21">
+        <v>4027</v>
+      </c>
+      <c r="CF21">
+        <v>4043</v>
+      </c>
+      <c r="CG21">
+        <v>4012</v>
+      </c>
+      <c r="CH21">
+        <v>133398</v>
+      </c>
+      <c r="CI21">
+        <v>52364</v>
+      </c>
+      <c r="CJ21">
+        <v>46693</v>
+      </c>
+      <c r="CK21">
+        <v>41508</v>
+      </c>
+      <c r="CL21">
+        <v>4016</v>
+      </c>
+      <c r="CM21">
+        <v>4032</v>
+      </c>
+      <c r="CN21">
+        <v>3997</v>
+      </c>
+      <c r="CO21">
+        <v>43423</v>
+      </c>
+      <c r="CP21">
+        <v>1791</v>
+      </c>
+      <c r="CQ21">
+        <v>1765</v>
+      </c>
+      <c r="CR21">
+        <v>0</v>
+      </c>
+      <c r="CS21">
+        <v>4008</v>
+      </c>
+      <c r="CT21">
+        <v>4032</v>
+      </c>
+      <c r="CU21">
+        <v>3997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:99" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>44651.520138888889</v>
+      </c>
+      <c r="B22">
+        <v>770661</v>
+      </c>
+      <c r="C22">
+        <v>207632</v>
+      </c>
+      <c r="D22">
+        <v>186017</v>
+      </c>
+      <c r="E22">
+        <v>210895</v>
+      </c>
+      <c r="F22">
+        <v>3804</v>
+      </c>
+      <c r="G22">
+        <v>3824</v>
+      </c>
+      <c r="H22">
+        <v>3790</v>
+      </c>
+      <c r="I22">
+        <v>333797</v>
+      </c>
+      <c r="J22">
+        <v>120169</v>
+      </c>
+      <c r="K22">
+        <v>120236</v>
+      </c>
+      <c r="L22">
+        <v>125149</v>
+      </c>
+      <c r="M22">
+        <v>3775</v>
+      </c>
+      <c r="N22">
+        <v>3817</v>
+      </c>
+      <c r="O22">
+        <v>3789</v>
+      </c>
+      <c r="P22">
+        <v>188751</v>
+      </c>
+      <c r="Q22">
+        <v>38719</v>
+      </c>
+      <c r="R22">
+        <v>41636</v>
+      </c>
+      <c r="S22">
+        <v>41745</v>
+      </c>
+      <c r="T22">
+        <v>3774</v>
+      </c>
+      <c r="U22">
+        <v>3812</v>
+      </c>
+      <c r="V22">
+        <v>3787</v>
+      </c>
+      <c r="W22">
+        <v>1636654</v>
+      </c>
+      <c r="X22">
+        <v>275855</v>
+      </c>
+      <c r="Y22">
+        <v>300534</v>
+      </c>
+      <c r="Z22">
+        <v>278275</v>
+      </c>
+      <c r="AA22">
+        <v>3941</v>
+      </c>
+      <c r="AB22">
+        <v>3951</v>
+      </c>
+      <c r="AC22">
+        <v>3926</v>
+      </c>
+      <c r="AD22">
+        <v>45694</v>
+      </c>
+      <c r="AE22">
+        <v>4169</v>
+      </c>
+      <c r="AF22">
+        <v>4142</v>
+      </c>
+      <c r="AG22">
+        <v>3550</v>
+      </c>
+      <c r="AH22">
+        <v>3943</v>
+      </c>
+      <c r="AI22">
+        <v>3952</v>
+      </c>
+      <c r="AJ22">
+        <v>3928</v>
+      </c>
+      <c r="AK22">
+        <v>383229</v>
+      </c>
+      <c r="AL22">
+        <v>88866</v>
+      </c>
+      <c r="AM22">
+        <v>93659</v>
+      </c>
+      <c r="AN22">
+        <v>88827</v>
+      </c>
+      <c r="AO22">
+        <v>3942</v>
+      </c>
+      <c r="AP22">
+        <v>3953</v>
+      </c>
+      <c r="AQ22">
+        <v>3928</v>
+      </c>
+      <c r="AR22">
+        <v>165813</v>
+      </c>
+      <c r="AS22">
+        <v>2011</v>
+      </c>
+      <c r="AT22">
+        <v>2035</v>
+      </c>
+      <c r="AU22">
+        <v>1997</v>
+      </c>
+      <c r="AV22">
+        <v>3949</v>
+      </c>
+      <c r="AW22">
+        <v>3959</v>
+      </c>
+      <c r="AX22">
+        <v>3934</v>
+      </c>
+      <c r="AY22">
+        <v>508040</v>
+      </c>
+      <c r="AZ22">
+        <v>142872</v>
+      </c>
+      <c r="BA22">
+        <v>156877</v>
+      </c>
+      <c r="BB22">
+        <v>143201</v>
+      </c>
+      <c r="BC22">
+        <v>4024</v>
+      </c>
+      <c r="BD22">
+        <v>4039</v>
+      </c>
+      <c r="BE22">
+        <v>4009</v>
+      </c>
+      <c r="BF22">
+        <v>2345208</v>
+      </c>
+      <c r="BG22">
+        <v>372606</v>
+      </c>
+      <c r="BH22">
+        <v>404647</v>
+      </c>
+      <c r="BI22">
+        <v>360660</v>
+      </c>
+      <c r="BJ22">
+        <v>4031</v>
+      </c>
+      <c r="BK22">
+        <v>4044</v>
+      </c>
+      <c r="BL22">
+        <v>4014</v>
+      </c>
+      <c r="BM22">
+        <v>63261</v>
+      </c>
+      <c r="BN22">
+        <v>0</v>
+      </c>
+      <c r="BO22">
+        <v>0</v>
+      </c>
+      <c r="BP22">
+        <v>0</v>
+      </c>
+      <c r="BQ22">
+        <v>4018</v>
+      </c>
+      <c r="BR22">
+        <v>4033</v>
+      </c>
+      <c r="BS22">
+        <v>4005</v>
+      </c>
+      <c r="BT22">
+        <v>211855</v>
+      </c>
+      <c r="BU22">
+        <v>0</v>
+      </c>
+      <c r="BV22">
+        <v>0</v>
+      </c>
+      <c r="BW22">
+        <v>0</v>
+      </c>
+      <c r="BX22">
+        <v>4021</v>
+      </c>
+      <c r="BY22">
+        <v>4035</v>
+      </c>
+      <c r="BZ22">
+        <v>4004</v>
+      </c>
+      <c r="CA22">
+        <v>500635</v>
+      </c>
+      <c r="CB22">
+        <v>95828</v>
+      </c>
+      <c r="CC22">
+        <v>95469</v>
+      </c>
+      <c r="CD22">
+        <v>97707</v>
+      </c>
+      <c r="CE22">
+        <v>4017</v>
+      </c>
+      <c r="CF22">
+        <v>4032</v>
+      </c>
+      <c r="CG22">
+        <v>4001</v>
+      </c>
+      <c r="CH22">
+        <v>133398</v>
+      </c>
+      <c r="CI22">
+        <v>52072</v>
+      </c>
+      <c r="CJ22">
+        <v>46370</v>
+      </c>
+      <c r="CK22">
+        <v>41200</v>
+      </c>
+      <c r="CL22">
+        <v>4008</v>
+      </c>
+      <c r="CM22">
+        <v>4024</v>
+      </c>
+      <c r="CN22">
+        <v>3990</v>
+      </c>
+      <c r="CO22">
+        <v>43424</v>
+      </c>
+      <c r="CP22">
+        <v>1787</v>
+      </c>
+      <c r="CQ22">
+        <v>1758</v>
+      </c>
+      <c r="CR22">
+        <v>0</v>
+      </c>
+      <c r="CS22">
+        <v>4002</v>
+      </c>
+      <c r="CT22">
+        <v>4024</v>
+      </c>
+      <c r="CU22">
+        <v>3991</v>
+      </c>
+    </row>
+    <row r="23" spans="1:99" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>44651.520833333336</v>
+      </c>
+      <c r="B23">
+        <v>770663</v>
+      </c>
+      <c r="C23">
+        <v>210371</v>
+      </c>
+      <c r="D23">
+        <v>186649</v>
+      </c>
+      <c r="E23">
+        <v>209572</v>
+      </c>
+      <c r="F23">
+        <v>3829</v>
+      </c>
+      <c r="G23">
+        <v>3851</v>
+      </c>
+      <c r="H23">
+        <v>3815</v>
+      </c>
+      <c r="I23">
+        <v>333798</v>
+      </c>
+      <c r="J23">
+        <v>121193</v>
+      </c>
+      <c r="K23">
+        <v>121370</v>
+      </c>
+      <c r="L23">
+        <v>126242</v>
+      </c>
+      <c r="M23">
+        <v>3795</v>
+      </c>
+      <c r="N23">
+        <v>3836</v>
+      </c>
+      <c r="O23">
+        <v>3809</v>
+      </c>
+      <c r="P23">
+        <v>188751</v>
+      </c>
+      <c r="Q23">
+        <v>38796</v>
+      </c>
+      <c r="R23">
+        <v>41692</v>
+      </c>
+      <c r="S23">
+        <v>41868</v>
+      </c>
+      <c r="T23">
+        <v>3793</v>
+      </c>
+      <c r="U23">
+        <v>3834</v>
+      </c>
+      <c r="V23">
+        <v>3806</v>
+      </c>
+      <c r="W23">
+        <v>1636657</v>
+      </c>
+      <c r="X23">
+        <v>272657</v>
+      </c>
+      <c r="Y23">
+        <v>295073</v>
+      </c>
+      <c r="Z23">
+        <v>276285</v>
+      </c>
+      <c r="AA23">
+        <v>3959</v>
+      </c>
+      <c r="AB23">
+        <v>3972</v>
+      </c>
+      <c r="AC23">
+        <v>3946</v>
+      </c>
+      <c r="AD23">
+        <v>45694</v>
+      </c>
+      <c r="AE23">
+        <v>4176</v>
+      </c>
+      <c r="AF23">
+        <v>4168</v>
+      </c>
+      <c r="AG23">
+        <v>3591</v>
+      </c>
+      <c r="AH23">
+        <v>3960</v>
+      </c>
+      <c r="AI23">
+        <v>3971</v>
+      </c>
+      <c r="AJ23">
+        <v>3948</v>
+      </c>
+      <c r="AK23">
+        <v>383230</v>
+      </c>
+      <c r="AL23">
+        <v>86398</v>
+      </c>
+      <c r="AM23">
+        <v>90844</v>
+      </c>
+      <c r="AN23">
+        <v>86558</v>
+      </c>
+      <c r="AO23">
+        <v>3957</v>
+      </c>
+      <c r="AP23">
+        <v>3969</v>
+      </c>
+      <c r="AQ23">
+        <v>3944</v>
+      </c>
+      <c r="AR23">
+        <v>165813</v>
+      </c>
+      <c r="AS23">
+        <v>2016</v>
+      </c>
+      <c r="AT23">
+        <v>2043</v>
+      </c>
+      <c r="AU23">
+        <v>2016</v>
+      </c>
+      <c r="AV23">
+        <v>3958</v>
+      </c>
+      <c r="AW23">
+        <v>3971</v>
+      </c>
+      <c r="AX23">
+        <v>3946</v>
+      </c>
+      <c r="AY23">
+        <v>508041</v>
+      </c>
+      <c r="AZ23">
+        <v>143192</v>
+      </c>
+      <c r="BA23">
+        <v>157175</v>
+      </c>
+      <c r="BB23">
+        <v>144395</v>
+      </c>
+      <c r="BC23">
+        <v>4033</v>
+      </c>
+      <c r="BD23">
+        <v>4049</v>
+      </c>
+      <c r="BE23">
+        <v>4022</v>
+      </c>
+      <c r="BF23">
+        <v>2345212</v>
+      </c>
+      <c r="BG23">
+        <v>370723</v>
+      </c>
+      <c r="BH23">
+        <v>411615</v>
+      </c>
+      <c r="BI23">
+        <v>368143</v>
+      </c>
+      <c r="BJ23">
+        <v>4039</v>
+      </c>
+      <c r="BK23">
+        <v>4054</v>
+      </c>
+      <c r="BL23">
+        <v>4024</v>
+      </c>
+      <c r="BM23">
+        <v>63261</v>
+      </c>
+      <c r="BN23">
+        <v>0</v>
+      </c>
+      <c r="BO23">
+        <v>0</v>
+      </c>
+      <c r="BP23">
+        <v>0</v>
+      </c>
+      <c r="BQ23">
+        <v>4039</v>
+      </c>
+      <c r="BR23">
+        <v>4057</v>
+      </c>
+      <c r="BS23">
+        <v>4027</v>
+      </c>
+      <c r="BT23">
+        <v>211855</v>
+      </c>
+      <c r="BU23">
+        <v>0</v>
+      </c>
+      <c r="BV23">
+        <v>0</v>
+      </c>
+      <c r="BW23">
+        <v>0</v>
+      </c>
+      <c r="BX23">
+        <v>4042</v>
+      </c>
+      <c r="BY23">
+        <v>4059</v>
+      </c>
+      <c r="BZ23">
+        <v>4032</v>
+      </c>
+      <c r="CA23">
+        <v>500636</v>
+      </c>
+      <c r="CB23">
+        <v>92598</v>
+      </c>
+      <c r="CC23">
+        <v>95335</v>
+      </c>
+      <c r="CD23">
+        <v>97753</v>
+      </c>
+      <c r="CE23">
+        <v>4041</v>
+      </c>
+      <c r="CF23">
+        <v>4058</v>
+      </c>
+      <c r="CG23">
+        <v>4028</v>
+      </c>
+      <c r="CH23">
+        <v>133399</v>
+      </c>
+      <c r="CI23">
+        <v>52327</v>
+      </c>
+      <c r="CJ23">
+        <v>46703</v>
+      </c>
+      <c r="CK23">
+        <v>41670</v>
+      </c>
+      <c r="CL23">
+        <v>4031</v>
+      </c>
+      <c r="CM23">
+        <v>4047</v>
+      </c>
+      <c r="CN23">
+        <v>4013</v>
+      </c>
+      <c r="CO23">
+        <v>43424</v>
+      </c>
+      <c r="CP23">
+        <v>1796</v>
+      </c>
+      <c r="CQ23">
+        <v>1771</v>
+      </c>
+      <c r="CR23">
+        <v>0</v>
+      </c>
+      <c r="CS23">
+        <v>4026</v>
+      </c>
+      <c r="CT23">
+        <v>4047</v>
+      </c>
+      <c r="CU23">
+        <v>4013</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>